--- a/template_v4_test.xlsx
+++ b/template_v4_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>Metadata</t>
   </si>
@@ -305,6 +305,9 @@
     <t>None</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>P3</t>
   </si>
   <si>
@@ -327,7 +330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +342,12 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -356,7 +365,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -454,6 +463,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
@@ -526,13 +542,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -904,67 +913,64 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -976,67 +982,64 @@
     <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
@@ -1045,7 +1048,7 @@
     <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
@@ -1054,13 +1057,13 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
@@ -1072,77 +1075,80 @@
     <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="1" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="28" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="29" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="28" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="3" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="31" applyBorder="1" fontId="3" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="4" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="32" applyBorder="1" fontId="3" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="31" applyBorder="1" fontId="4" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="32" applyBorder="1" fontId="4" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="3" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="4" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1154,7 +1160,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1464,26 +1473,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="83" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="83" width="31.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="84" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="84" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="83" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="84" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="84" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="84" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="85" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="86" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="86" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="83" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="83" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="83" width="37.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="83" width="39.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="83" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="83" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="83" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="83" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="83" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="82" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="82" width="31.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="83" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="83" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="82" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="83" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="83" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="83" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="84" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="85" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="85" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="86" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="86" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="86" width="37.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="82" width="39.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="82" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="82" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="82" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="82" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="82" width="17.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
@@ -1500,9 +1509,9 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -1511,25 +1520,25 @@
       <c r="T1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
       <c r="N2" s="14"/>
       <c r="O2" s="15"/>
       <c r="P2" s="2"/>
@@ -1552,11 +1561,11 @@
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
-      <c r="N3" s="23"/>
+      <c r="N3" s="22"/>
       <c r="O3" s="15"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1568,7 +1577,7 @@
       <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3"/>
@@ -1580,9 +1589,9 @@
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1591,49 +1600,49 @@
       <c r="T4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="22.125">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="O5" s="31" t="s">
         <v>20</v>
       </c>
       <c r="P5" s="2"/>
@@ -1643,25 +1652,25 @@
       <c r="T5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.5">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="39"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="37"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -1669,56 +1678,56 @@
       <c r="T6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="23.5">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="40">
         <v>298</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="41" t="s">
+      <c r="L7" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="41" t="s">
+      <c r="N7" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="44"/>
-      <c r="P7" s="45" t="s">
+      <c r="O7" s="42"/>
+      <c r="P7" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="46" t="s">
+      <c r="Q7" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="R7" s="46" t="s">
+      <c r="R7" s="44" t="s">
         <v>38</v>
       </c>
       <c r="S7" s="2"/>
@@ -1726,108 +1735,110 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50" t="s">
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="55" t="s">
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="56"/>
-      <c r="O8" s="57" t="s">
+      <c r="N8" s="54"/>
+      <c r="O8" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="58" t="s">
+      <c r="P8" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="60"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="58"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="66" t="s">
+      <c r="H9" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="67" t="s">
+      <c r="I9" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="68" t="s">
+      <c r="J9" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="68" t="s">
+      <c r="K9" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="69" t="s">
+      <c r="L9" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="70" t="s">
+      <c r="M9" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="N9" s="71" t="s">
+      <c r="N9" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="O9" s="72"/>
-      <c r="P9" s="73" t="s">
+      <c r="O9" s="70"/>
+      <c r="P9" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="Q9" s="74" t="s">
+      <c r="Q9" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="R9" s="74" t="s">
+      <c r="R9" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="S9" s="74" t="s">
+      <c r="S9" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="T9" s="75" t="s">
+      <c r="T9" s="73" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="74"/>
+      <c r="B10" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="77"/>
+      <c r="E10" s="77" t="s">
+        <v>66</v>
+      </c>
       <c r="F10" s="78"/>
       <c r="G10" s="78"/>
       <c r="H10" s="78"/>
@@ -1835,28 +1846,28 @@
       <c r="J10" s="80"/>
       <c r="K10" s="80"/>
       <c r="L10" s="77"/>
-      <c r="M10" s="77" t="s">
-        <v>66</v>
+      <c r="M10" s="75" t="s">
+        <v>67</v>
       </c>
-      <c r="N10" s="41" t="s">
+      <c r="N10" s="39" t="s">
         <v>35</v>
       </c>
       <c r="O10" s="77"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="76"/>
-      <c r="B11" s="77" t="s">
-        <v>68</v>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="74"/>
+      <c r="B11" s="75" t="s">
+        <v>69</v>
       </c>
-      <c r="C11" s="78" t="s">
-        <v>69</v>
+      <c r="C11" s="76" t="s">
+        <v>70</v>
       </c>
       <c r="D11" s="78"/>
       <c r="E11" s="77"/>
@@ -1867,10 +1878,10 @@
       <c r="J11" s="80"/>
       <c r="K11" s="80"/>
       <c r="L11" s="77"/>
-      <c r="M11" s="77" t="s">
-        <v>70</v>
+      <c r="M11" s="75" t="s">
+        <v>71</v>
       </c>
-      <c r="N11" s="41" t="s">
+      <c r="N11" s="39" t="s">
         <v>35</v>
       </c>
       <c r="O11" s="77"/>
@@ -1881,7 +1892,7 @@
       <c r="T11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="76"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="77"/>
       <c r="C12" s="78"/>
       <c r="D12" s="78"/>
@@ -1902,8 +1913,8 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="76"/>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="74"/>
       <c r="B13" s="77"/>
       <c r="C13" s="78"/>
       <c r="D13" s="78"/>
@@ -1924,8 +1935,8 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="76"/>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="74"/>
       <c r="B14" s="77"/>
       <c r="C14" s="78"/>
       <c r="D14" s="78"/>
@@ -1946,8 +1957,8 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
-      <c r="A15" s="76"/>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="74"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78"/>
       <c r="D15" s="78"/>
@@ -1968,8 +1979,8 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
-      <c r="A16" s="76"/>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="74"/>
       <c r="B16" s="77"/>
       <c r="C16" s="78"/>
       <c r="D16" s="78"/>
@@ -1990,8 +2001,8 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
-      <c r="A17" s="76"/>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="74"/>
       <c r="B17" s="77"/>
       <c r="C17" s="78"/>
       <c r="D17" s="78"/>
@@ -2012,8 +2023,8 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
-      <c r="A18" s="76"/>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="74"/>
       <c r="B18" s="77"/>
       <c r="C18" s="78"/>
       <c r="D18" s="78"/>
@@ -2034,8 +2045,8 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
-      <c r="A19" s="76"/>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="74"/>
       <c r="B19" s="77"/>
       <c r="C19" s="78"/>
       <c r="D19" s="78"/>
@@ -2056,8 +2067,8 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
-      <c r="A20" s="76"/>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="74"/>
       <c r="B20" s="77"/>
       <c r="C20" s="78"/>
       <c r="D20" s="78"/>
@@ -2078,8 +2089,8 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
-      <c r="A21" s="76"/>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="74"/>
       <c r="B21" s="77"/>
       <c r="C21" s="78"/>
       <c r="D21" s="78"/>
@@ -2100,8 +2111,8 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
-      <c r="A22" s="76"/>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="74"/>
       <c r="B22" s="77"/>
       <c r="C22" s="78"/>
       <c r="D22" s="78"/>
@@ -2122,8 +2133,8 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
-      <c r="A23" s="76"/>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="74"/>
       <c r="B23" s="77"/>
       <c r="C23" s="78"/>
       <c r="D23" s="78"/>
@@ -2144,8 +2155,8 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
-      <c r="A24" s="76"/>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="74"/>
       <c r="B24" s="77"/>
       <c r="C24" s="78"/>
       <c r="D24" s="78"/>
@@ -2166,8 +2177,8 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
-      <c r="A25" s="76"/>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="74"/>
       <c r="B25" s="77"/>
       <c r="C25" s="78"/>
       <c r="D25" s="78"/>
@@ -2188,8 +2199,8 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
-      <c r="A26" s="76"/>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="74"/>
       <c r="B26" s="77"/>
       <c r="C26" s="78"/>
       <c r="D26" s="78"/>
@@ -2210,8 +2221,8 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
-      <c r="A27" s="76"/>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="74"/>
       <c r="B27" s="77"/>
       <c r="C27" s="78"/>
       <c r="D27" s="78"/>
@@ -2232,8 +2243,8 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
-      <c r="A28" s="76"/>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="74"/>
       <c r="B28" s="77"/>
       <c r="C28" s="78"/>
       <c r="D28" s="78"/>
@@ -2254,8 +2265,8 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
-      <c r="A29" s="76"/>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="74"/>
       <c r="B29" s="77"/>
       <c r="C29" s="78"/>
       <c r="D29" s="78"/>
@@ -2276,8 +2287,8 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
-      <c r="A30" s="76"/>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="74"/>
       <c r="B30" s="77"/>
       <c r="C30" s="78"/>
       <c r="D30" s="78"/>
@@ -2299,7 +2310,7 @@
       <c r="T30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
-      <c r="A31" s="76"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="77"/>
       <c r="C31" s="78"/>
       <c r="D31" s="78"/>
@@ -2321,7 +2332,7 @@
       <c r="T31" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
-      <c r="A32" s="76"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="77"/>
       <c r="C32" s="78"/>
       <c r="D32" s="78"/>
@@ -2343,7 +2354,7 @@
       <c r="T32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
-      <c r="A33" s="76"/>
+      <c r="A33" s="74"/>
       <c r="B33" s="77"/>
       <c r="C33" s="78"/>
       <c r="D33" s="78"/>
@@ -2365,7 +2376,7 @@
       <c r="T33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
-      <c r="A34" s="76"/>
+      <c r="A34" s="74"/>
       <c r="B34" s="77"/>
       <c r="C34" s="78"/>
       <c r="D34" s="78"/>
@@ -2387,7 +2398,7 @@
       <c r="T34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
-      <c r="A35" s="76"/>
+      <c r="A35" s="74"/>
       <c r="B35" s="77"/>
       <c r="C35" s="78"/>
       <c r="D35" s="78"/>
@@ -2409,7 +2420,7 @@
       <c r="T35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
-      <c r="A36" s="76"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="77"/>
       <c r="C36" s="78"/>
       <c r="D36" s="78"/>
@@ -2431,7 +2442,7 @@
       <c r="T36" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
-      <c r="A37" s="76"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="77"/>
       <c r="C37" s="78"/>
       <c r="D37" s="78"/>
@@ -2453,7 +2464,7 @@
       <c r="T37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
-      <c r="A38" s="76"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="77"/>
       <c r="C38" s="78"/>
       <c r="D38" s="78"/>
@@ -2475,7 +2486,7 @@
       <c r="T38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
-      <c r="A39" s="76"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="77"/>
       <c r="C39" s="78"/>
       <c r="D39" s="78"/>
@@ -2497,7 +2508,7 @@
       <c r="T39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
-      <c r="A40" s="76"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="77"/>
       <c r="C40" s="78"/>
       <c r="D40" s="78"/>
@@ -2519,7 +2530,7 @@
       <c r="T40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
-      <c r="A41" s="76"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="77"/>
       <c r="C41" s="78"/>
       <c r="D41" s="78"/>
@@ -2541,7 +2552,7 @@
       <c r="T41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
-      <c r="A42" s="76"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="77"/>
       <c r="C42" s="78"/>
       <c r="D42" s="78"/>
@@ -2563,7 +2574,7 @@
       <c r="T42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
-      <c r="A43" s="76"/>
+      <c r="A43" s="74"/>
       <c r="B43" s="77"/>
       <c r="C43" s="78"/>
       <c r="D43" s="78"/>
@@ -2585,7 +2596,7 @@
       <c r="T43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
-      <c r="A44" s="76"/>
+      <c r="A44" s="74"/>
       <c r="B44" s="77"/>
       <c r="C44" s="78"/>
       <c r="D44" s="78"/>
@@ -2607,7 +2618,7 @@
       <c r="T44" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
-      <c r="A45" s="76"/>
+      <c r="A45" s="74"/>
       <c r="B45" s="77"/>
       <c r="C45" s="78"/>
       <c r="D45" s="78"/>
@@ -2629,7 +2640,7 @@
       <c r="T45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
-      <c r="A46" s="76"/>
+      <c r="A46" s="74"/>
       <c r="B46" s="77"/>
       <c r="C46" s="78"/>
       <c r="D46" s="78"/>
@@ -2651,7 +2662,7 @@
       <c r="T46" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
-      <c r="A47" s="76"/>
+      <c r="A47" s="74"/>
       <c r="B47" s="77"/>
       <c r="C47" s="78"/>
       <c r="D47" s="78"/>
@@ -2673,7 +2684,7 @@
       <c r="T47" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
-      <c r="A48" s="76"/>
+      <c r="A48" s="74"/>
       <c r="B48" s="77"/>
       <c r="C48" s="78"/>
       <c r="D48" s="78"/>
@@ -2695,7 +2706,7 @@
       <c r="T48" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
-      <c r="A49" s="76"/>
+      <c r="A49" s="74"/>
       <c r="B49" s="77"/>
       <c r="C49" s="78"/>
       <c r="D49" s="78"/>
@@ -2717,7 +2728,7 @@
       <c r="T49" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
-      <c r="A50" s="76"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="77"/>
       <c r="C50" s="78"/>
       <c r="D50" s="78"/>
@@ -2739,7 +2750,7 @@
       <c r="T50" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
-      <c r="A51" s="76"/>
+      <c r="A51" s="74"/>
       <c r="B51" s="77"/>
       <c r="C51" s="78"/>
       <c r="D51" s="78"/>
@@ -2761,7 +2772,7 @@
       <c r="T51" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
-      <c r="A52" s="76"/>
+      <c r="A52" s="74"/>
       <c r="B52" s="77"/>
       <c r="C52" s="78"/>
       <c r="D52" s="78"/>
@@ -2783,7 +2794,7 @@
       <c r="T52" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
-      <c r="A53" s="76"/>
+      <c r="A53" s="74"/>
       <c r="B53" s="77"/>
       <c r="C53" s="78"/>
       <c r="D53" s="78"/>
@@ -2805,7 +2816,7 @@
       <c r="T53" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
-      <c r="A54" s="76"/>
+      <c r="A54" s="74"/>
       <c r="B54" s="77"/>
       <c r="C54" s="78"/>
       <c r="D54" s="78"/>
@@ -2827,7 +2838,7 @@
       <c r="T54" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
-      <c r="A55" s="76"/>
+      <c r="A55" s="74"/>
       <c r="B55" s="77"/>
       <c r="C55" s="78"/>
       <c r="D55" s="78"/>
@@ -2849,7 +2860,7 @@
       <c r="T55" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
-      <c r="A56" s="76"/>
+      <c r="A56" s="74"/>
       <c r="B56" s="77"/>
       <c r="C56" s="78"/>
       <c r="D56" s="78"/>
@@ -2871,7 +2882,7 @@
       <c r="T56" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
-      <c r="A57" s="76"/>
+      <c r="A57" s="74"/>
       <c r="B57" s="77"/>
       <c r="C57" s="78"/>
       <c r="D57" s="78"/>
@@ -2893,7 +2904,7 @@
       <c r="T57" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
-      <c r="A58" s="76"/>
+      <c r="A58" s="74"/>
       <c r="B58" s="77"/>
       <c r="C58" s="78"/>
       <c r="D58" s="78"/>
@@ -2915,7 +2926,7 @@
       <c r="T58" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
-      <c r="A59" s="76"/>
+      <c r="A59" s="74"/>
       <c r="B59" s="77"/>
       <c r="C59" s="78"/>
       <c r="D59" s="78"/>
@@ -2937,7 +2948,7 @@
       <c r="T59" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
-      <c r="A60" s="76"/>
+      <c r="A60" s="74"/>
       <c r="B60" s="77"/>
       <c r="C60" s="78"/>
       <c r="D60" s="78"/>
@@ -2959,7 +2970,7 @@
       <c r="T60" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
-      <c r="A61" s="76"/>
+      <c r="A61" s="74"/>
       <c r="B61" s="77"/>
       <c r="C61" s="78"/>
       <c r="D61" s="78"/>
@@ -2981,7 +2992,7 @@
       <c r="T61" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
-      <c r="A62" s="76"/>
+      <c r="A62" s="74"/>
       <c r="B62" s="77"/>
       <c r="C62" s="78"/>
       <c r="D62" s="78"/>
@@ -3003,7 +3014,7 @@
       <c r="T62" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
-      <c r="A63" s="76"/>
+      <c r="A63" s="74"/>
       <c r="B63" s="77"/>
       <c r="C63" s="78"/>
       <c r="D63" s="78"/>
@@ -3025,7 +3036,7 @@
       <c r="T63" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
-      <c r="A64" s="76"/>
+      <c r="A64" s="74"/>
       <c r="B64" s="77"/>
       <c r="C64" s="78"/>
       <c r="D64" s="78"/>
@@ -3047,7 +3058,7 @@
       <c r="T64" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
-      <c r="A65" s="76"/>
+      <c r="A65" s="74"/>
       <c r="B65" s="77"/>
       <c r="C65" s="78"/>
       <c r="D65" s="78"/>
@@ -3069,7 +3080,7 @@
       <c r="T65" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
-      <c r="A66" s="76"/>
+      <c r="A66" s="74"/>
       <c r="B66" s="77"/>
       <c r="C66" s="78"/>
       <c r="D66" s="78"/>
@@ -3091,7 +3102,7 @@
       <c r="T66" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
-      <c r="A67" s="76"/>
+      <c r="A67" s="74"/>
       <c r="B67" s="77"/>
       <c r="C67" s="78"/>
       <c r="D67" s="78"/>
@@ -3113,7 +3124,7 @@
       <c r="T67" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
-      <c r="A68" s="76"/>
+      <c r="A68" s="74"/>
       <c r="B68" s="77"/>
       <c r="C68" s="78"/>
       <c r="D68" s="78"/>
@@ -3135,7 +3146,7 @@
       <c r="T68" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
-      <c r="A69" s="76"/>
+      <c r="A69" s="74"/>
       <c r="B69" s="77"/>
       <c r="C69" s="78"/>
       <c r="D69" s="78"/>
@@ -3157,7 +3168,7 @@
       <c r="T69" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
-      <c r="A70" s="76"/>
+      <c r="A70" s="74"/>
       <c r="B70" s="77"/>
       <c r="C70" s="78"/>
       <c r="D70" s="78"/>
@@ -3179,7 +3190,7 @@
       <c r="T70" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
-      <c r="A71" s="76"/>
+      <c r="A71" s="74"/>
       <c r="B71" s="77"/>
       <c r="C71" s="78"/>
       <c r="D71" s="78"/>
@@ -3201,7 +3212,7 @@
       <c r="T71" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
-      <c r="A72" s="76"/>
+      <c r="A72" s="74"/>
       <c r="B72" s="77"/>
       <c r="C72" s="78"/>
       <c r="D72" s="78"/>
@@ -3223,7 +3234,7 @@
       <c r="T72" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
-      <c r="A73" s="76"/>
+      <c r="A73" s="74"/>
       <c r="B73" s="77"/>
       <c r="C73" s="78"/>
       <c r="D73" s="78"/>
@@ -3245,7 +3256,7 @@
       <c r="T73" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
-      <c r="A74" s="76"/>
+      <c r="A74" s="74"/>
       <c r="B74" s="77"/>
       <c r="C74" s="78"/>
       <c r="D74" s="78"/>
@@ -3267,7 +3278,7 @@
       <c r="T74" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
-      <c r="A75" s="76"/>
+      <c r="A75" s="74"/>
       <c r="B75" s="77"/>
       <c r="C75" s="78"/>
       <c r="D75" s="78"/>
@@ -3289,7 +3300,7 @@
       <c r="T75" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
-      <c r="A76" s="76"/>
+      <c r="A76" s="74"/>
       <c r="B76" s="77"/>
       <c r="C76" s="78"/>
       <c r="D76" s="78"/>
@@ -3311,7 +3322,7 @@
       <c r="T76" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
-      <c r="A77" s="76"/>
+      <c r="A77" s="74"/>
       <c r="B77" s="77"/>
       <c r="C77" s="78"/>
       <c r="D77" s="78"/>
@@ -3333,7 +3344,7 @@
       <c r="T77" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
-      <c r="A78" s="76"/>
+      <c r="A78" s="74"/>
       <c r="B78" s="77"/>
       <c r="C78" s="78"/>
       <c r="D78" s="78"/>
@@ -3355,7 +3366,7 @@
       <c r="T78" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
-      <c r="A79" s="76"/>
+      <c r="A79" s="74"/>
       <c r="B79" s="77"/>
       <c r="C79" s="78"/>
       <c r="D79" s="78"/>
@@ -3377,7 +3388,7 @@
       <c r="T79" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
-      <c r="A80" s="76"/>
+      <c r="A80" s="74"/>
       <c r="B80" s="77"/>
       <c r="C80" s="78"/>
       <c r="D80" s="78"/>
@@ -3399,7 +3410,7 @@
       <c r="T80" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18">
-      <c r="A81" s="76"/>
+      <c r="A81" s="74"/>
       <c r="B81" s="77"/>
       <c r="C81" s="78"/>
       <c r="D81" s="78"/>
@@ -3421,7 +3432,7 @@
       <c r="T81" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18">
-      <c r="A82" s="76"/>
+      <c r="A82" s="74"/>
       <c r="B82" s="77"/>
       <c r="C82" s="78"/>
       <c r="D82" s="78"/>
@@ -3443,7 +3454,7 @@
       <c r="T82" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18">
-      <c r="A83" s="76"/>
+      <c r="A83" s="74"/>
       <c r="B83" s="77"/>
       <c r="C83" s="78"/>
       <c r="D83" s="78"/>
@@ -3465,7 +3476,7 @@
       <c r="T83" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18">
-      <c r="A84" s="76"/>
+      <c r="A84" s="74"/>
       <c r="B84" s="77"/>
       <c r="C84" s="78"/>
       <c r="D84" s="78"/>
@@ -3487,7 +3498,7 @@
       <c r="T84" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18">
-      <c r="A85" s="76"/>
+      <c r="A85" s="74"/>
       <c r="B85" s="77"/>
       <c r="C85" s="78"/>
       <c r="D85" s="78"/>
@@ -3509,7 +3520,7 @@
       <c r="T85" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18">
-      <c r="A86" s="76"/>
+      <c r="A86" s="74"/>
       <c r="B86" s="77"/>
       <c r="C86" s="78"/>
       <c r="D86" s="78"/>
@@ -3531,7 +3542,7 @@
       <c r="T86" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18">
-      <c r="A87" s="76"/>
+      <c r="A87" s="74"/>
       <c r="B87" s="77"/>
       <c r="C87" s="78"/>
       <c r="D87" s="78"/>
@@ -3553,7 +3564,7 @@
       <c r="T87" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18">
-      <c r="A88" s="76"/>
+      <c r="A88" s="74"/>
       <c r="B88" s="77"/>
       <c r="C88" s="78"/>
       <c r="D88" s="78"/>
@@ -3575,7 +3586,7 @@
       <c r="T88" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18">
-      <c r="A89" s="76"/>
+      <c r="A89" s="74"/>
       <c r="B89" s="77"/>
       <c r="C89" s="78"/>
       <c r="D89" s="78"/>
@@ -3597,7 +3608,7 @@
       <c r="T89" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18">
-      <c r="A90" s="76"/>
+      <c r="A90" s="74"/>
       <c r="B90" s="77"/>
       <c r="C90" s="78"/>
       <c r="D90" s="78"/>
@@ -3619,7 +3630,7 @@
       <c r="T90" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18">
-      <c r="A91" s="76"/>
+      <c r="A91" s="74"/>
       <c r="B91" s="77"/>
       <c r="C91" s="78"/>
       <c r="D91" s="78"/>
@@ -3641,7 +3652,7 @@
       <c r="T91" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18">
-      <c r="A92" s="76"/>
+      <c r="A92" s="74"/>
       <c r="B92" s="77"/>
       <c r="C92" s="78"/>
       <c r="D92" s="78"/>
@@ -3663,7 +3674,7 @@
       <c r="T92" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18">
-      <c r="A93" s="76"/>
+      <c r="A93" s="74"/>
       <c r="B93" s="77"/>
       <c r="C93" s="78"/>
       <c r="D93" s="78"/>
@@ -3685,7 +3696,7 @@
       <c r="T93" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18">
-      <c r="A94" s="76"/>
+      <c r="A94" s="74"/>
       <c r="B94" s="77"/>
       <c r="C94" s="78"/>
       <c r="D94" s="78"/>
@@ -3707,7 +3718,7 @@
       <c r="T94" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18">
-      <c r="A95" s="76"/>
+      <c r="A95" s="74"/>
       <c r="B95" s="77"/>
       <c r="C95" s="78"/>
       <c r="D95" s="78"/>
@@ -3729,7 +3740,7 @@
       <c r="T95" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18">
-      <c r="A96" s="76"/>
+      <c r="A96" s="74"/>
       <c r="B96" s="77"/>
       <c r="C96" s="78"/>
       <c r="D96" s="78"/>
@@ -3751,7 +3762,7 @@
       <c r="T96" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18">
-      <c r="A97" s="76"/>
+      <c r="A97" s="74"/>
       <c r="B97" s="77"/>
       <c r="C97" s="78"/>
       <c r="D97" s="78"/>
@@ -3773,7 +3784,7 @@
       <c r="T97" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18">
-      <c r="A98" s="76"/>
+      <c r="A98" s="74"/>
       <c r="B98" s="77"/>
       <c r="C98" s="78"/>
       <c r="D98" s="78"/>
@@ -3795,7 +3806,7 @@
       <c r="T98" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18">
-      <c r="A99" s="76"/>
+      <c r="A99" s="74"/>
       <c r="B99" s="77"/>
       <c r="C99" s="78"/>
       <c r="D99" s="78"/>
@@ -3817,7 +3828,7 @@
       <c r="T99" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18">
-      <c r="A100" s="76"/>
+      <c r="A100" s="74"/>
       <c r="B100" s="77"/>
       <c r="C100" s="78"/>
       <c r="D100" s="78"/>
@@ -3839,7 +3850,7 @@
       <c r="T100" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18">
-      <c r="A101" s="76"/>
+      <c r="A101" s="74"/>
       <c r="B101" s="77"/>
       <c r="C101" s="78"/>
       <c r="D101" s="78"/>
@@ -3861,7 +3872,7 @@
       <c r="T101" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18">
-      <c r="A102" s="76"/>
+      <c r="A102" s="74"/>
       <c r="B102" s="77"/>
       <c r="C102" s="78"/>
       <c r="D102" s="78"/>
@@ -3883,7 +3894,7 @@
       <c r="T102" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18">
-      <c r="A103" s="76"/>
+      <c r="A103" s="74"/>
       <c r="B103" s="77"/>
       <c r="C103" s="78"/>
       <c r="D103" s="78"/>
@@ -3905,7 +3916,7 @@
       <c r="T103" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18">
-      <c r="A104" s="76"/>
+      <c r="A104" s="74"/>
       <c r="B104" s="77"/>
       <c r="C104" s="78"/>
       <c r="D104" s="78"/>
@@ -3927,7 +3938,7 @@
       <c r="T104" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18">
-      <c r="A105" s="76"/>
+      <c r="A105" s="74"/>
       <c r="B105" s="77"/>
       <c r="C105" s="78"/>
       <c r="D105" s="78"/>
@@ -3949,7 +3960,7 @@
       <c r="T105" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18">
-      <c r="A106" s="76"/>
+      <c r="A106" s="74"/>
       <c r="B106" s="77"/>
       <c r="C106" s="78"/>
       <c r="D106" s="78"/>
@@ -3971,7 +3982,7 @@
       <c r="T106" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18">
-      <c r="A107" s="76"/>
+      <c r="A107" s="74"/>
       <c r="B107" s="77"/>
       <c r="C107" s="78"/>
       <c r="D107" s="78"/>
@@ -3993,7 +4004,7 @@
       <c r="T107" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18">
-      <c r="A108" s="76"/>
+      <c r="A108" s="74"/>
       <c r="B108" s="77"/>
       <c r="C108" s="78"/>
       <c r="D108" s="78"/>
@@ -4015,7 +4026,7 @@
       <c r="T108" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18">
-      <c r="A109" s="76"/>
+      <c r="A109" s="74"/>
       <c r="B109" s="77"/>
       <c r="C109" s="78"/>
       <c r="D109" s="78"/>
@@ -4037,7 +4048,7 @@
       <c r="T109" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18">
-      <c r="A110" s="76"/>
+      <c r="A110" s="74"/>
       <c r="B110" s="77"/>
       <c r="C110" s="78"/>
       <c r="D110" s="78"/>
@@ -4059,7 +4070,7 @@
       <c r="T110" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18">
-      <c r="A111" s="76"/>
+      <c r="A111" s="74"/>
       <c r="B111" s="77"/>
       <c r="C111" s="78"/>
       <c r="D111" s="78"/>
@@ -4081,7 +4092,7 @@
       <c r="T111" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18">
-      <c r="A112" s="76"/>
+      <c r="A112" s="74"/>
       <c r="B112" s="77"/>
       <c r="C112" s="78"/>
       <c r="D112" s="78"/>
@@ -4103,7 +4114,7 @@
       <c r="T112" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18">
-      <c r="A113" s="76"/>
+      <c r="A113" s="74"/>
       <c r="B113" s="77"/>
       <c r="C113" s="78"/>
       <c r="D113" s="78"/>
@@ -4125,7 +4136,7 @@
       <c r="T113" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18">
-      <c r="A114" s="76"/>
+      <c r="A114" s="74"/>
       <c r="B114" s="77"/>
       <c r="C114" s="78"/>
       <c r="D114" s="78"/>
@@ -4147,7 +4158,7 @@
       <c r="T114" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18">
-      <c r="A115" s="76"/>
+      <c r="A115" s="74"/>
       <c r="B115" s="77"/>
       <c r="C115" s="78"/>
       <c r="D115" s="78"/>
@@ -4169,7 +4180,7 @@
       <c r="T115" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18">
-      <c r="A116" s="76"/>
+      <c r="A116" s="74"/>
       <c r="B116" s="77"/>
       <c r="C116" s="78"/>
       <c r="D116" s="78"/>
@@ -4191,7 +4202,7 @@
       <c r="T116" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18">
-      <c r="A117" s="76"/>
+      <c r="A117" s="74"/>
       <c r="B117" s="77"/>
       <c r="C117" s="78"/>
       <c r="D117" s="78"/>
@@ -4213,7 +4224,7 @@
       <c r="T117" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18">
-      <c r="A118" s="76"/>
+      <c r="A118" s="74"/>
       <c r="B118" s="77"/>
       <c r="C118" s="78"/>
       <c r="D118" s="78"/>
@@ -4235,7 +4246,7 @@
       <c r="T118" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18">
-      <c r="A119" s="76"/>
+      <c r="A119" s="74"/>
       <c r="B119" s="77"/>
       <c r="C119" s="78"/>
       <c r="D119" s="78"/>
@@ -4257,7 +4268,7 @@
       <c r="T119" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18">
-      <c r="A120" s="76"/>
+      <c r="A120" s="74"/>
       <c r="B120" s="77"/>
       <c r="C120" s="78"/>
       <c r="D120" s="78"/>
@@ -4279,7 +4290,7 @@
       <c r="T120" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18">
-      <c r="A121" s="76"/>
+      <c r="A121" s="74"/>
       <c r="B121" s="77"/>
       <c r="C121" s="78"/>
       <c r="D121" s="78"/>
@@ -4301,7 +4312,7 @@
       <c r="T121" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18">
-      <c r="A122" s="76"/>
+      <c r="A122" s="74"/>
       <c r="B122" s="77"/>
       <c r="C122" s="78"/>
       <c r="D122" s="78"/>
@@ -4323,7 +4334,7 @@
       <c r="T122" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18">
-      <c r="A123" s="76"/>
+      <c r="A123" s="74"/>
       <c r="B123" s="77"/>
       <c r="C123" s="78"/>
       <c r="D123" s="78"/>
@@ -4345,7 +4356,7 @@
       <c r="T123" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18">
-      <c r="A124" s="76"/>
+      <c r="A124" s="74"/>
       <c r="B124" s="77"/>
       <c r="C124" s="78"/>
       <c r="D124" s="78"/>
@@ -4367,7 +4378,7 @@
       <c r="T124" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18">
-      <c r="A125" s="76"/>
+      <c r="A125" s="74"/>
       <c r="B125" s="77"/>
       <c r="C125" s="78"/>
       <c r="D125" s="78"/>
@@ -4389,7 +4400,7 @@
       <c r="T125" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18">
-      <c r="A126" s="76"/>
+      <c r="A126" s="74"/>
       <c r="B126" s="77"/>
       <c r="C126" s="78"/>
       <c r="D126" s="78"/>
@@ -4411,7 +4422,7 @@
       <c r="T126" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18">
-      <c r="A127" s="76"/>
+      <c r="A127" s="74"/>
       <c r="B127" s="77"/>
       <c r="C127" s="78"/>
       <c r="D127" s="78"/>
@@ -4433,7 +4444,7 @@
       <c r="T127" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18">
-      <c r="A128" s="76"/>
+      <c r="A128" s="74"/>
       <c r="B128" s="77"/>
       <c r="C128" s="78"/>
       <c r="D128" s="78"/>
@@ -4455,7 +4466,7 @@
       <c r="T128" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18">
-      <c r="A129" s="76"/>
+      <c r="A129" s="74"/>
       <c r="B129" s="77"/>
       <c r="C129" s="78"/>
       <c r="D129" s="78"/>
@@ -4477,7 +4488,7 @@
       <c r="T129" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18">
-      <c r="A130" s="76"/>
+      <c r="A130" s="74"/>
       <c r="B130" s="77"/>
       <c r="C130" s="78"/>
       <c r="D130" s="78"/>
@@ -4499,7 +4510,7 @@
       <c r="T130" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18">
-      <c r="A131" s="76"/>
+      <c r="A131" s="74"/>
       <c r="B131" s="77"/>
       <c r="C131" s="78"/>
       <c r="D131" s="78"/>
@@ -4521,7 +4532,7 @@
       <c r="T131" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18">
-      <c r="A132" s="76"/>
+      <c r="A132" s="74"/>
       <c r="B132" s="77"/>
       <c r="C132" s="78"/>
       <c r="D132" s="78"/>
@@ -4543,7 +4554,7 @@
       <c r="T132" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18">
-      <c r="A133" s="76"/>
+      <c r="A133" s="74"/>
       <c r="B133" s="77"/>
       <c r="C133" s="78"/>
       <c r="D133" s="78"/>
@@ -4565,7 +4576,7 @@
       <c r="T133" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18">
-      <c r="A134" s="76"/>
+      <c r="A134" s="74"/>
       <c r="B134" s="77"/>
       <c r="C134" s="78"/>
       <c r="D134" s="78"/>
@@ -4587,7 +4598,7 @@
       <c r="T134" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18">
-      <c r="A135" s="76"/>
+      <c r="A135" s="74"/>
       <c r="B135" s="77"/>
       <c r="C135" s="78"/>
       <c r="D135" s="78"/>
@@ -4609,7 +4620,7 @@
       <c r="T135" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18">
-      <c r="A136" s="76"/>
+      <c r="A136" s="74"/>
       <c r="B136" s="77"/>
       <c r="C136" s="78"/>
       <c r="D136" s="78"/>
@@ -4631,7 +4642,7 @@
       <c r="T136" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18">
-      <c r="A137" s="76"/>
+      <c r="A137" s="74"/>
       <c r="B137" s="77"/>
       <c r="C137" s="78"/>
       <c r="D137" s="78"/>
@@ -4653,7 +4664,7 @@
       <c r="T137" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18">
-      <c r="A138" s="76"/>
+      <c r="A138" s="74"/>
       <c r="B138" s="77"/>
       <c r="C138" s="78"/>
       <c r="D138" s="78"/>
@@ -4675,7 +4686,7 @@
       <c r="T138" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18">
-      <c r="A139" s="76"/>
+      <c r="A139" s="74"/>
       <c r="B139" s="77"/>
       <c r="C139" s="78"/>
       <c r="D139" s="78"/>
@@ -4697,7 +4708,7 @@
       <c r="T139" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18">
-      <c r="A140" s="76"/>
+      <c r="A140" s="74"/>
       <c r="B140" s="77"/>
       <c r="C140" s="78"/>
       <c r="D140" s="78"/>
@@ -4719,7 +4730,7 @@
       <c r="T140" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18">
-      <c r="A141" s="76"/>
+      <c r="A141" s="74"/>
       <c r="B141" s="77"/>
       <c r="C141" s="78"/>
       <c r="D141" s="78"/>
@@ -4741,7 +4752,7 @@
       <c r="T141" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18">
-      <c r="A142" s="76"/>
+      <c r="A142" s="74"/>
       <c r="B142" s="77"/>
       <c r="C142" s="78"/>
       <c r="D142" s="78"/>
@@ -4763,7 +4774,7 @@
       <c r="T142" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18">
-      <c r="A143" s="76"/>
+      <c r="A143" s="74"/>
       <c r="B143" s="77"/>
       <c r="C143" s="78"/>
       <c r="D143" s="78"/>
@@ -4785,7 +4796,7 @@
       <c r="T143" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18">
-      <c r="A144" s="76"/>
+      <c r="A144" s="74"/>
       <c r="B144" s="77"/>
       <c r="C144" s="78"/>
       <c r="D144" s="78"/>
@@ -4807,7 +4818,7 @@
       <c r="T144" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18">
-      <c r="A145" s="76"/>
+      <c r="A145" s="74"/>
       <c r="B145" s="77"/>
       <c r="C145" s="78"/>
       <c r="D145" s="78"/>
@@ -4829,7 +4840,7 @@
       <c r="T145" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18">
-      <c r="A146" s="76"/>
+      <c r="A146" s="74"/>
       <c r="B146" s="77"/>
       <c r="C146" s="78"/>
       <c r="D146" s="78"/>
@@ -4851,7 +4862,7 @@
       <c r="T146" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18">
-      <c r="A147" s="76"/>
+      <c r="A147" s="74"/>
       <c r="B147" s="77"/>
       <c r="C147" s="78"/>
       <c r="D147" s="78"/>
@@ -4873,7 +4884,7 @@
       <c r="T147" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18">
-      <c r="A148" s="76"/>
+      <c r="A148" s="74"/>
       <c r="B148" s="77"/>
       <c r="C148" s="78"/>
       <c r="D148" s="78"/>
@@ -4895,7 +4906,7 @@
       <c r="T148" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18">
-      <c r="A149" s="76"/>
+      <c r="A149" s="74"/>
       <c r="B149" s="77"/>
       <c r="C149" s="78"/>
       <c r="D149" s="78"/>
@@ -4917,7 +4928,7 @@
       <c r="T149" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18">
-      <c r="A150" s="76"/>
+      <c r="A150" s="74"/>
       <c r="B150" s="77"/>
       <c r="C150" s="78"/>
       <c r="D150" s="78"/>
@@ -4939,7 +4950,7 @@
       <c r="T150" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18">
-      <c r="A151" s="76"/>
+      <c r="A151" s="74"/>
       <c r="B151" s="77"/>
       <c r="C151" s="78"/>
       <c r="D151" s="78"/>
@@ -4961,7 +4972,7 @@
       <c r="T151" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18">
-      <c r="A152" s="76"/>
+      <c r="A152" s="74"/>
       <c r="B152" s="77"/>
       <c r="C152" s="78"/>
       <c r="D152" s="78"/>
@@ -4983,7 +4994,7 @@
       <c r="T152" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18">
-      <c r="A153" s="76"/>
+      <c r="A153" s="74"/>
       <c r="B153" s="77"/>
       <c r="C153" s="78"/>
       <c r="D153" s="78"/>
@@ -5005,7 +5016,7 @@
       <c r="T153" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18">
-      <c r="A154" s="76"/>
+      <c r="A154" s="74"/>
       <c r="B154" s="77"/>
       <c r="C154" s="78"/>
       <c r="D154" s="78"/>
@@ -5027,7 +5038,7 @@
       <c r="T154" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18">
-      <c r="A155" s="76"/>
+      <c r="A155" s="74"/>
       <c r="B155" s="77"/>
       <c r="C155" s="78"/>
       <c r="D155" s="78"/>
@@ -5049,7 +5060,7 @@
       <c r="T155" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18">
-      <c r="A156" s="76"/>
+      <c r="A156" s="74"/>
       <c r="B156" s="77"/>
       <c r="C156" s="78"/>
       <c r="D156" s="78"/>
@@ -5071,7 +5082,7 @@
       <c r="T156" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18">
-      <c r="A157" s="76"/>
+      <c r="A157" s="74"/>
       <c r="B157" s="77"/>
       <c r="C157" s="78"/>
       <c r="D157" s="78"/>
@@ -5093,7 +5104,7 @@
       <c r="T157" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18">
-      <c r="A158" s="76"/>
+      <c r="A158" s="74"/>
       <c r="B158" s="77"/>
       <c r="C158" s="78"/>
       <c r="D158" s="78"/>
@@ -5115,7 +5126,7 @@
       <c r="T158" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18">
-      <c r="A159" s="76"/>
+      <c r="A159" s="74"/>
       <c r="B159" s="77"/>
       <c r="C159" s="78"/>
       <c r="D159" s="78"/>
@@ -5137,7 +5148,7 @@
       <c r="T159" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18">
-      <c r="A160" s="76"/>
+      <c r="A160" s="74"/>
       <c r="B160" s="77"/>
       <c r="C160" s="78"/>
       <c r="D160" s="78"/>
@@ -5159,7 +5170,7 @@
       <c r="T160" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18">
-      <c r="A161" s="76"/>
+      <c r="A161" s="74"/>
       <c r="B161" s="77"/>
       <c r="C161" s="78"/>
       <c r="D161" s="78"/>
@@ -5181,7 +5192,7 @@
       <c r="T161" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18">
-      <c r="A162" s="76"/>
+      <c r="A162" s="74"/>
       <c r="B162" s="77"/>
       <c r="C162" s="78"/>
       <c r="D162" s="78"/>
@@ -5203,7 +5214,7 @@
       <c r="T162" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18">
-      <c r="A163" s="76"/>
+      <c r="A163" s="74"/>
       <c r="B163" s="77"/>
       <c r="C163" s="78"/>
       <c r="D163" s="78"/>
@@ -5225,7 +5236,7 @@
       <c r="T163" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18">
-      <c r="A164" s="76"/>
+      <c r="A164" s="74"/>
       <c r="B164" s="77"/>
       <c r="C164" s="78"/>
       <c r="D164" s="78"/>
@@ -5247,7 +5258,7 @@
       <c r="T164" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18">
-      <c r="A165" s="76"/>
+      <c r="A165" s="74"/>
       <c r="B165" s="77"/>
       <c r="C165" s="78"/>
       <c r="D165" s="78"/>
@@ -5269,7 +5280,7 @@
       <c r="T165" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18">
-      <c r="A166" s="76"/>
+      <c r="A166" s="74"/>
       <c r="B166" s="77"/>
       <c r="C166" s="78"/>
       <c r="D166" s="78"/>
@@ -5291,7 +5302,7 @@
       <c r="T166" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18">
-      <c r="A167" s="76"/>
+      <c r="A167" s="74"/>
       <c r="B167" s="77"/>
       <c r="C167" s="78"/>
       <c r="D167" s="78"/>
@@ -5313,7 +5324,7 @@
       <c r="T167" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18">
-      <c r="A168" s="76"/>
+      <c r="A168" s="74"/>
       <c r="B168" s="77"/>
       <c r="C168" s="78"/>
       <c r="D168" s="78"/>
@@ -5335,7 +5346,7 @@
       <c r="T168" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18">
-      <c r="A169" s="76"/>
+      <c r="A169" s="74"/>
       <c r="B169" s="77"/>
       <c r="C169" s="78"/>
       <c r="D169" s="78"/>
@@ -5357,7 +5368,7 @@
       <c r="T169" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18">
-      <c r="A170" s="76"/>
+      <c r="A170" s="74"/>
       <c r="B170" s="77"/>
       <c r="C170" s="78"/>
       <c r="D170" s="78"/>
@@ -5379,7 +5390,7 @@
       <c r="T170" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18">
-      <c r="A171" s="76"/>
+      <c r="A171" s="74"/>
       <c r="B171" s="77"/>
       <c r="C171" s="78"/>
       <c r="D171" s="78"/>
@@ -5401,7 +5412,7 @@
       <c r="T171" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18">
-      <c r="A172" s="76"/>
+      <c r="A172" s="74"/>
       <c r="B172" s="77"/>
       <c r="C172" s="78"/>
       <c r="D172" s="78"/>
@@ -5423,7 +5434,7 @@
       <c r="T172" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18">
-      <c r="A173" s="76"/>
+      <c r="A173" s="74"/>
       <c r="B173" s="77"/>
       <c r="C173" s="78"/>
       <c r="D173" s="78"/>
@@ -5445,7 +5456,7 @@
       <c r="T173" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18">
-      <c r="A174" s="76"/>
+      <c r="A174" s="74"/>
       <c r="B174" s="77"/>
       <c r="C174" s="78"/>
       <c r="D174" s="78"/>
@@ -5467,7 +5478,7 @@
       <c r="T174" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18">
-      <c r="A175" s="76"/>
+      <c r="A175" s="74"/>
       <c r="B175" s="77"/>
       <c r="C175" s="78"/>
       <c r="D175" s="78"/>
@@ -5489,7 +5500,7 @@
       <c r="T175" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18">
-      <c r="A176" s="76"/>
+      <c r="A176" s="74"/>
       <c r="B176" s="77"/>
       <c r="C176" s="78"/>
       <c r="D176" s="78"/>
@@ -5511,7 +5522,7 @@
       <c r="T176" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18">
-      <c r="A177" s="76"/>
+      <c r="A177" s="74"/>
       <c r="B177" s="77"/>
       <c r="C177" s="78"/>
       <c r="D177" s="78"/>
@@ -5533,7 +5544,7 @@
       <c r="T177" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18">
-      <c r="A178" s="76"/>
+      <c r="A178" s="74"/>
       <c r="B178" s="77"/>
       <c r="C178" s="78"/>
       <c r="D178" s="78"/>
@@ -5555,7 +5566,7 @@
       <c r="T178" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18">
-      <c r="A179" s="76"/>
+      <c r="A179" s="74"/>
       <c r="B179" s="77"/>
       <c r="C179" s="78"/>
       <c r="D179" s="78"/>
@@ -5577,7 +5588,7 @@
       <c r="T179" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18">
-      <c r="A180" s="76"/>
+      <c r="A180" s="74"/>
       <c r="B180" s="77"/>
       <c r="C180" s="78"/>
       <c r="D180" s="78"/>
@@ -5599,7 +5610,7 @@
       <c r="T180" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18">
-      <c r="A181" s="76"/>
+      <c r="A181" s="74"/>
       <c r="B181" s="77"/>
       <c r="C181" s="78"/>
       <c r="D181" s="78"/>
@@ -5621,7 +5632,7 @@
       <c r="T181" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18">
-      <c r="A182" s="76"/>
+      <c r="A182" s="74"/>
       <c r="B182" s="77"/>
       <c r="C182" s="78"/>
       <c r="D182" s="78"/>
@@ -5643,7 +5654,7 @@
       <c r="T182" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18">
-      <c r="A183" s="76"/>
+      <c r="A183" s="74"/>
       <c r="B183" s="77"/>
       <c r="C183" s="78"/>
       <c r="D183" s="78"/>
@@ -5665,7 +5676,7 @@
       <c r="T183" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18">
-      <c r="A184" s="76"/>
+      <c r="A184" s="74"/>
       <c r="B184" s="77"/>
       <c r="C184" s="78"/>
       <c r="D184" s="78"/>
@@ -5687,7 +5698,7 @@
       <c r="T184" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18">
-      <c r="A185" s="76"/>
+      <c r="A185" s="74"/>
       <c r="B185" s="77"/>
       <c r="C185" s="78"/>
       <c r="D185" s="78"/>
@@ -5709,7 +5720,7 @@
       <c r="T185" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18">
-      <c r="A186" s="76"/>
+      <c r="A186" s="74"/>
       <c r="B186" s="77"/>
       <c r="C186" s="78"/>
       <c r="D186" s="78"/>
@@ -5731,7 +5742,7 @@
       <c r="T186" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18">
-      <c r="A187" s="76"/>
+      <c r="A187" s="74"/>
       <c r="B187" s="77"/>
       <c r="C187" s="78"/>
       <c r="D187" s="78"/>
@@ -5753,7 +5764,7 @@
       <c r="T187" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18">
-      <c r="A188" s="76"/>
+      <c r="A188" s="74"/>
       <c r="B188" s="77"/>
       <c r="C188" s="78"/>
       <c r="D188" s="78"/>
@@ -5775,7 +5786,7 @@
       <c r="T188" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18">
-      <c r="A189" s="76"/>
+      <c r="A189" s="74"/>
       <c r="B189" s="77"/>
       <c r="C189" s="78"/>
       <c r="D189" s="78"/>
@@ -5797,7 +5808,7 @@
       <c r="T189" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18">
-      <c r="A190" s="76"/>
+      <c r="A190" s="74"/>
       <c r="B190" s="77"/>
       <c r="C190" s="78"/>
       <c r="D190" s="78"/>
@@ -5819,7 +5830,7 @@
       <c r="T190" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18">
-      <c r="A191" s="76"/>
+      <c r="A191" s="74"/>
       <c r="B191" s="77"/>
       <c r="C191" s="78"/>
       <c r="D191" s="78"/>
@@ -5841,7 +5852,7 @@
       <c r="T191" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18">
-      <c r="A192" s="76"/>
+      <c r="A192" s="74"/>
       <c r="B192" s="77"/>
       <c r="C192" s="78"/>
       <c r="D192" s="78"/>
@@ -5863,7 +5874,7 @@
       <c r="T192" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18">
-      <c r="A193" s="76"/>
+      <c r="A193" s="74"/>
       <c r="B193" s="77"/>
       <c r="C193" s="78"/>
       <c r="D193" s="78"/>
@@ -5885,7 +5896,7 @@
       <c r="T193" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18">
-      <c r="A194" s="76"/>
+      <c r="A194" s="74"/>
       <c r="B194" s="77"/>
       <c r="C194" s="78"/>
       <c r="D194" s="78"/>
@@ -5907,7 +5918,7 @@
       <c r="T194" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18">
-      <c r="A195" s="76"/>
+      <c r="A195" s="74"/>
       <c r="B195" s="77"/>
       <c r="C195" s="78"/>
       <c r="D195" s="78"/>
@@ -5929,7 +5940,7 @@
       <c r="T195" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18">
-      <c r="A196" s="76"/>
+      <c r="A196" s="74"/>
       <c r="B196" s="77"/>
       <c r="C196" s="78"/>
       <c r="D196" s="78"/>
@@ -5951,7 +5962,7 @@
       <c r="T196" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18">
-      <c r="A197" s="76"/>
+      <c r="A197" s="74"/>
       <c r="B197" s="77"/>
       <c r="C197" s="78"/>
       <c r="D197" s="78"/>
@@ -5973,7 +5984,7 @@
       <c r="T197" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18">
-      <c r="A198" s="76"/>
+      <c r="A198" s="74"/>
       <c r="B198" s="77"/>
       <c r="C198" s="78"/>
       <c r="D198" s="78"/>
@@ -5995,7 +6006,7 @@
       <c r="T198" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18">
-      <c r="A199" s="76"/>
+      <c r="A199" s="74"/>
       <c r="B199" s="77"/>
       <c r="C199" s="78"/>
       <c r="D199" s="78"/>
@@ -6017,7 +6028,7 @@
       <c r="T199" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18">
-      <c r="A200" s="76"/>
+      <c r="A200" s="74"/>
       <c r="B200" s="77"/>
       <c r="C200" s="78"/>
       <c r="D200" s="78"/>
@@ -6039,7 +6050,7 @@
       <c r="T200" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18">
-      <c r="A201" s="76"/>
+      <c r="A201" s="74"/>
       <c r="B201" s="77"/>
       <c r="C201" s="78"/>
       <c r="D201" s="78"/>
@@ -6061,7 +6072,7 @@
       <c r="T201" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18">
-      <c r="A202" s="76"/>
+      <c r="A202" s="74"/>
       <c r="B202" s="77"/>
       <c r="C202" s="78"/>
       <c r="D202" s="78"/>
@@ -6083,7 +6094,7 @@
       <c r="T202" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18">
-      <c r="A203" s="76"/>
+      <c r="A203" s="74"/>
       <c r="B203" s="77"/>
       <c r="C203" s="78"/>
       <c r="D203" s="78"/>
@@ -6105,7 +6116,7 @@
       <c r="T203" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18">
-      <c r="A204" s="76"/>
+      <c r="A204" s="74"/>
       <c r="B204" s="77"/>
       <c r="C204" s="78"/>
       <c r="D204" s="78"/>
@@ -6127,7 +6138,7 @@
       <c r="T204" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18">
-      <c r="A205" s="76"/>
+      <c r="A205" s="74"/>
       <c r="B205" s="77"/>
       <c r="C205" s="78"/>
       <c r="D205" s="78"/>
@@ -6149,7 +6160,7 @@
       <c r="T205" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18">
-      <c r="A206" s="76"/>
+      <c r="A206" s="74"/>
       <c r="B206" s="77"/>
       <c r="C206" s="78"/>
       <c r="D206" s="78"/>
@@ -6171,7 +6182,7 @@
       <c r="T206" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18">
-      <c r="A207" s="76"/>
+      <c r="A207" s="74"/>
       <c r="B207" s="77"/>
       <c r="C207" s="78"/>
       <c r="D207" s="78"/>
@@ -6193,7 +6204,7 @@
       <c r="T207" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18">
-      <c r="A208" s="76"/>
+      <c r="A208" s="74"/>
       <c r="B208" s="77"/>
       <c r="C208" s="78"/>
       <c r="D208" s="78"/>
@@ -6215,7 +6226,7 @@
       <c r="T208" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18">
-      <c r="A209" s="76"/>
+      <c r="A209" s="74"/>
       <c r="B209" s="77"/>
       <c r="C209" s="78"/>
       <c r="D209" s="78"/>
@@ -6237,7 +6248,7 @@
       <c r="T209" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18">
-      <c r="A210" s="76"/>
+      <c r="A210" s="74"/>
       <c r="B210" s="77"/>
       <c r="C210" s="78"/>
       <c r="D210" s="78"/>
@@ -6259,7 +6270,7 @@
       <c r="T210" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18">
-      <c r="A211" s="76"/>
+      <c r="A211" s="74"/>
       <c r="B211" s="77"/>
       <c r="C211" s="78"/>
       <c r="D211" s="78"/>
@@ -6281,7 +6292,7 @@
       <c r="T211" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18">
-      <c r="A212" s="76"/>
+      <c r="A212" s="74"/>
       <c r="B212" s="77"/>
       <c r="C212" s="78"/>
       <c r="D212" s="78"/>
@@ -6303,7 +6314,7 @@
       <c r="T212" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18">
-      <c r="A213" s="76"/>
+      <c r="A213" s="74"/>
       <c r="B213" s="77"/>
       <c r="C213" s="78"/>
       <c r="D213" s="78"/>
@@ -6325,7 +6336,7 @@
       <c r="T213" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18">
-      <c r="A214" s="76"/>
+      <c r="A214" s="74"/>
       <c r="B214" s="77"/>
       <c r="C214" s="78"/>
       <c r="D214" s="78"/>
@@ -6347,7 +6358,7 @@
       <c r="T214" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18">
-      <c r="A215" s="76"/>
+      <c r="A215" s="74"/>
       <c r="B215" s="77"/>
       <c r="C215" s="78"/>
       <c r="D215" s="78"/>
@@ -6369,7 +6380,7 @@
       <c r="T215" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18">
-      <c r="A216" s="76"/>
+      <c r="A216" s="74"/>
       <c r="B216" s="77"/>
       <c r="C216" s="78"/>
       <c r="D216" s="78"/>
@@ -6391,7 +6402,7 @@
       <c r="T216" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18">
-      <c r="A217" s="76"/>
+      <c r="A217" s="74"/>
       <c r="B217" s="77"/>
       <c r="C217" s="78"/>
       <c r="D217" s="78"/>
@@ -6413,7 +6424,7 @@
       <c r="T217" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18">
-      <c r="A218" s="76"/>
+      <c r="A218" s="74"/>
       <c r="B218" s="77"/>
       <c r="C218" s="78"/>
       <c r="D218" s="78"/>
@@ -6435,7 +6446,7 @@
       <c r="T218" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18">
-      <c r="A219" s="76"/>
+      <c r="A219" s="74"/>
       <c r="B219" s="77"/>
       <c r="C219" s="78"/>
       <c r="D219" s="78"/>
@@ -6457,7 +6468,7 @@
       <c r="T219" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18">
-      <c r="A220" s="76"/>
+      <c r="A220" s="74"/>
       <c r="B220" s="77"/>
       <c r="C220" s="78"/>
       <c r="D220" s="78"/>
@@ -6479,7 +6490,7 @@
       <c r="T220" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18">
-      <c r="A221" s="76"/>
+      <c r="A221" s="74"/>
       <c r="B221" s="77"/>
       <c r="C221" s="78"/>
       <c r="D221" s="78"/>
@@ -6501,7 +6512,7 @@
       <c r="T221" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18">
-      <c r="A222" s="76"/>
+      <c r="A222" s="74"/>
       <c r="B222" s="77"/>
       <c r="C222" s="78"/>
       <c r="D222" s="78"/>
@@ -6523,7 +6534,7 @@
       <c r="T222" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18">
-      <c r="A223" s="76"/>
+      <c r="A223" s="74"/>
       <c r="B223" s="77"/>
       <c r="C223" s="78"/>
       <c r="D223" s="78"/>
@@ -6545,7 +6556,7 @@
       <c r="T223" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18">
-      <c r="A224" s="76"/>
+      <c r="A224" s="74"/>
       <c r="B224" s="77"/>
       <c r="C224" s="78"/>
       <c r="D224" s="78"/>
@@ -6567,7 +6578,7 @@
       <c r="T224" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18">
-      <c r="A225" s="76"/>
+      <c r="A225" s="74"/>
       <c r="B225" s="77"/>
       <c r="C225" s="78"/>
       <c r="D225" s="78"/>
@@ -6589,7 +6600,7 @@
       <c r="T225" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18">
-      <c r="A226" s="76"/>
+      <c r="A226" s="74"/>
       <c r="B226" s="77"/>
       <c r="C226" s="78"/>
       <c r="D226" s="78"/>
@@ -6611,7 +6622,7 @@
       <c r="T226" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18">
-      <c r="A227" s="76"/>
+      <c r="A227" s="74"/>
       <c r="B227" s="77"/>
       <c r="C227" s="78"/>
       <c r="D227" s="78"/>
@@ -6633,7 +6644,7 @@
       <c r="T227" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18">
-      <c r="A228" s="76"/>
+      <c r="A228" s="74"/>
       <c r="B228" s="77"/>
       <c r="C228" s="78"/>
       <c r="D228" s="78"/>
@@ -6655,7 +6666,7 @@
       <c r="T228" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18">
-      <c r="A229" s="76"/>
+      <c r="A229" s="74"/>
       <c r="B229" s="77"/>
       <c r="C229" s="78"/>
       <c r="D229" s="78"/>
@@ -6677,7 +6688,7 @@
       <c r="T229" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18">
-      <c r="A230" s="76"/>
+      <c r="A230" s="74"/>
       <c r="B230" s="77"/>
       <c r="C230" s="78"/>
       <c r="D230" s="78"/>
@@ -6699,7 +6710,7 @@
       <c r="T230" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18">
-      <c r="A231" s="76"/>
+      <c r="A231" s="74"/>
       <c r="B231" s="77"/>
       <c r="C231" s="78"/>
       <c r="D231" s="78"/>
@@ -6721,7 +6732,7 @@
       <c r="T231" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18">
-      <c r="A232" s="76"/>
+      <c r="A232" s="74"/>
       <c r="B232" s="77"/>
       <c r="C232" s="78"/>
       <c r="D232" s="78"/>
@@ -6743,7 +6754,7 @@
       <c r="T232" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18">
-      <c r="A233" s="76"/>
+      <c r="A233" s="74"/>
       <c r="B233" s="77"/>
       <c r="C233" s="78"/>
       <c r="D233" s="78"/>
@@ -6765,7 +6776,7 @@
       <c r="T233" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18">
-      <c r="A234" s="76"/>
+      <c r="A234" s="74"/>
       <c r="B234" s="77"/>
       <c r="C234" s="78"/>
       <c r="D234" s="78"/>
@@ -6787,7 +6798,7 @@
       <c r="T234" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18">
-      <c r="A235" s="76"/>
+      <c r="A235" s="74"/>
       <c r="B235" s="77"/>
       <c r="C235" s="78"/>
       <c r="D235" s="78"/>
@@ -6809,7 +6820,7 @@
       <c r="T235" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18">
-      <c r="A236" s="76"/>
+      <c r="A236" s="74"/>
       <c r="B236" s="77"/>
       <c r="C236" s="78"/>
       <c r="D236" s="78"/>
@@ -6831,7 +6842,7 @@
       <c r="T236" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18">
-      <c r="A237" s="76"/>
+      <c r="A237" s="74"/>
       <c r="B237" s="77"/>
       <c r="C237" s="78"/>
       <c r="D237" s="78"/>
@@ -6853,7 +6864,7 @@
       <c r="T237" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18">
-      <c r="A238" s="76"/>
+      <c r="A238" s="74"/>
       <c r="B238" s="77"/>
       <c r="C238" s="78"/>
       <c r="D238" s="78"/>
@@ -6875,7 +6886,7 @@
       <c r="T238" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18">
-      <c r="A239" s="76"/>
+      <c r="A239" s="74"/>
       <c r="B239" s="77"/>
       <c r="C239" s="78"/>
       <c r="D239" s="78"/>
@@ -6897,7 +6908,7 @@
       <c r="T239" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18">
-      <c r="A240" s="76"/>
+      <c r="A240" s="74"/>
       <c r="B240" s="77"/>
       <c r="C240" s="78"/>
       <c r="D240" s="78"/>
@@ -6919,7 +6930,7 @@
       <c r="T240" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18">
-      <c r="A241" s="76"/>
+      <c r="A241" s="74"/>
       <c r="B241" s="77"/>
       <c r="C241" s="78"/>
       <c r="D241" s="78"/>
@@ -6941,7 +6952,7 @@
       <c r="T241" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18">
-      <c r="A242" s="76"/>
+      <c r="A242" s="74"/>
       <c r="B242" s="77"/>
       <c r="C242" s="78"/>
       <c r="D242" s="78"/>
@@ -6963,7 +6974,7 @@
       <c r="T242" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18">
-      <c r="A243" s="76"/>
+      <c r="A243" s="74"/>
       <c r="B243" s="77"/>
       <c r="C243" s="78"/>
       <c r="D243" s="78"/>
@@ -6985,7 +6996,7 @@
       <c r="T243" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18">
-      <c r="A244" s="76"/>
+      <c r="A244" s="74"/>
       <c r="B244" s="77"/>
       <c r="C244" s="78"/>
       <c r="D244" s="78"/>
@@ -7007,7 +7018,7 @@
       <c r="T244" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18">
-      <c r="A245" s="76"/>
+      <c r="A245" s="74"/>
       <c r="B245" s="77"/>
       <c r="C245" s="78"/>
       <c r="D245" s="78"/>
@@ -7029,7 +7040,7 @@
       <c r="T245" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18">
-      <c r="A246" s="76"/>
+      <c r="A246" s="74"/>
       <c r="B246" s="77"/>
       <c r="C246" s="78"/>
       <c r="D246" s="78"/>
@@ -7051,7 +7062,7 @@
       <c r="T246" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18">
-      <c r="A247" s="76"/>
+      <c r="A247" s="74"/>
       <c r="B247" s="77"/>
       <c r="C247" s="78"/>
       <c r="D247" s="78"/>
@@ -7073,7 +7084,7 @@
       <c r="T247" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18">
-      <c r="A248" s="76"/>
+      <c r="A248" s="74"/>
       <c r="B248" s="77"/>
       <c r="C248" s="78"/>
       <c r="D248" s="78"/>
@@ -7095,7 +7106,7 @@
       <c r="T248" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18">
-      <c r="A249" s="76"/>
+      <c r="A249" s="74"/>
       <c r="B249" s="77"/>
       <c r="C249" s="78"/>
       <c r="D249" s="78"/>
@@ -7117,7 +7128,7 @@
       <c r="T249" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18">
-      <c r="A250" s="76"/>
+      <c r="A250" s="74"/>
       <c r="B250" s="77"/>
       <c r="C250" s="78"/>
       <c r="D250" s="78"/>
@@ -7139,7 +7150,7 @@
       <c r="T250" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18">
-      <c r="A251" s="76"/>
+      <c r="A251" s="74"/>
       <c r="B251" s="77"/>
       <c r="C251" s="78"/>
       <c r="D251" s="78"/>
@@ -7161,7 +7172,7 @@
       <c r="T251" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18">
-      <c r="A252" s="76"/>
+      <c r="A252" s="74"/>
       <c r="B252" s="77"/>
       <c r="C252" s="78"/>
       <c r="D252" s="78"/>
@@ -7183,7 +7194,7 @@
       <c r="T252" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18">
-      <c r="A253" s="76"/>
+      <c r="A253" s="74"/>
       <c r="B253" s="77"/>
       <c r="C253" s="78"/>
       <c r="D253" s="78"/>
@@ -7205,7 +7216,7 @@
       <c r="T253" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18">
-      <c r="A254" s="76"/>
+      <c r="A254" s="74"/>
       <c r="B254" s="77"/>
       <c r="C254" s="78"/>
       <c r="D254" s="78"/>
@@ -7227,7 +7238,7 @@
       <c r="T254" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18">
-      <c r="A255" s="76"/>
+      <c r="A255" s="74"/>
       <c r="B255" s="77"/>
       <c r="C255" s="78"/>
       <c r="D255" s="78"/>
@@ -7249,7 +7260,7 @@
       <c r="T255" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18">
-      <c r="A256" s="76"/>
+      <c r="A256" s="74"/>
       <c r="B256" s="77"/>
       <c r="C256" s="78"/>
       <c r="D256" s="78"/>
@@ -7271,7 +7282,7 @@
       <c r="T256" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18">
-      <c r="A257" s="76"/>
+      <c r="A257" s="74"/>
       <c r="B257" s="77"/>
       <c r="C257" s="78"/>
       <c r="D257" s="78"/>
@@ -7293,7 +7304,7 @@
       <c r="T257" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18">
-      <c r="A258" s="76"/>
+      <c r="A258" s="74"/>
       <c r="B258" s="77"/>
       <c r="C258" s="78"/>
       <c r="D258" s="78"/>
@@ -7317,12 +7328,12 @@
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18">
       <c r="A259" s="15"/>
       <c r="B259" s="2"/>
-      <c r="C259" s="82"/>
-      <c r="D259" s="82"/>
+      <c r="C259" s="76"/>
+      <c r="D259" s="76"/>
       <c r="E259" s="2"/>
-      <c r="F259" s="82"/>
-      <c r="G259" s="82"/>
-      <c r="H259" s="82"/>
+      <c r="F259" s="76"/>
+      <c r="G259" s="76"/>
+      <c r="H259" s="76"/>
       <c r="I259" s="79"/>
       <c r="J259" s="80"/>
       <c r="K259" s="80"/>
@@ -7339,12 +7350,12 @@
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18">
       <c r="A260" s="15"/>
       <c r="B260" s="2"/>
-      <c r="C260" s="82"/>
-      <c r="D260" s="82"/>
+      <c r="C260" s="76"/>
+      <c r="D260" s="76"/>
       <c r="E260" s="2"/>
-      <c r="F260" s="82"/>
-      <c r="G260" s="82"/>
-      <c r="H260" s="82"/>
+      <c r="F260" s="76"/>
+      <c r="G260" s="76"/>
+      <c r="H260" s="76"/>
       <c r="I260" s="79"/>
       <c r="J260" s="80"/>
       <c r="K260" s="80"/>
@@ -7361,12 +7372,12 @@
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18">
       <c r="A261" s="15"/>
       <c r="B261" s="2"/>
-      <c r="C261" s="82"/>
-      <c r="D261" s="82"/>
+      <c r="C261" s="76"/>
+      <c r="D261" s="76"/>
       <c r="E261" s="2"/>
-      <c r="F261" s="82"/>
-      <c r="G261" s="82"/>
-      <c r="H261" s="82"/>
+      <c r="F261" s="76"/>
+      <c r="G261" s="76"/>
+      <c r="H261" s="76"/>
       <c r="I261" s="79"/>
       <c r="J261" s="80"/>
       <c r="K261" s="80"/>
@@ -7383,12 +7394,12 @@
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18">
       <c r="A262" s="15"/>
       <c r="B262" s="2"/>
-      <c r="C262" s="82"/>
-      <c r="D262" s="82"/>
+      <c r="C262" s="76"/>
+      <c r="D262" s="76"/>
       <c r="E262" s="2"/>
-      <c r="F262" s="82"/>
-      <c r="G262" s="82"/>
-      <c r="H262" s="82"/>
+      <c r="F262" s="76"/>
+      <c r="G262" s="76"/>
+      <c r="H262" s="76"/>
       <c r="I262" s="79"/>
       <c r="J262" s="80"/>
       <c r="K262" s="80"/>
@@ -7405,12 +7416,12 @@
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18">
       <c r="A263" s="15"/>
       <c r="B263" s="2"/>
-      <c r="C263" s="82"/>
-      <c r="D263" s="82"/>
+      <c r="C263" s="76"/>
+      <c r="D263" s="76"/>
       <c r="E263" s="2"/>
-      <c r="F263" s="82"/>
-      <c r="G263" s="82"/>
-      <c r="H263" s="82"/>
+      <c r="F263" s="76"/>
+      <c r="G263" s="76"/>
+      <c r="H263" s="76"/>
       <c r="I263" s="79"/>
       <c r="J263" s="80"/>
       <c r="K263" s="80"/>
@@ -7427,12 +7438,12 @@
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18">
       <c r="A264" s="15"/>
       <c r="B264" s="2"/>
-      <c r="C264" s="82"/>
-      <c r="D264" s="82"/>
+      <c r="C264" s="76"/>
+      <c r="D264" s="76"/>
       <c r="E264" s="2"/>
-      <c r="F264" s="82"/>
-      <c r="G264" s="82"/>
-      <c r="H264" s="82"/>
+      <c r="F264" s="76"/>
+      <c r="G264" s="76"/>
+      <c r="H264" s="76"/>
       <c r="I264" s="79"/>
       <c r="J264" s="80"/>
       <c r="K264" s="80"/>
@@ -7449,12 +7460,12 @@
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18">
       <c r="A265" s="15"/>
       <c r="B265" s="2"/>
-      <c r="C265" s="82"/>
-      <c r="D265" s="82"/>
+      <c r="C265" s="76"/>
+      <c r="D265" s="76"/>
       <c r="E265" s="2"/>
-      <c r="F265" s="82"/>
-      <c r="G265" s="82"/>
-      <c r="H265" s="82"/>
+      <c r="F265" s="76"/>
+      <c r="G265" s="76"/>
+      <c r="H265" s="76"/>
       <c r="I265" s="79"/>
       <c r="J265" s="80"/>
       <c r="K265" s="80"/>
@@ -7471,12 +7482,12 @@
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18">
       <c r="A266" s="15"/>
       <c r="B266" s="2"/>
-      <c r="C266" s="82"/>
-      <c r="D266" s="82"/>
+      <c r="C266" s="76"/>
+      <c r="D266" s="76"/>
       <c r="E266" s="2"/>
-      <c r="F266" s="82"/>
-      <c r="G266" s="82"/>
-      <c r="H266" s="82"/>
+      <c r="F266" s="76"/>
+      <c r="G266" s="76"/>
+      <c r="H266" s="76"/>
       <c r="I266" s="79"/>
       <c r="J266" s="80"/>
       <c r="K266" s="80"/>
@@ -7493,12 +7504,12 @@
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18">
       <c r="A267" s="15"/>
       <c r="B267" s="2"/>
-      <c r="C267" s="82"/>
-      <c r="D267" s="82"/>
+      <c r="C267" s="76"/>
+      <c r="D267" s="76"/>
       <c r="E267" s="2"/>
-      <c r="F267" s="82"/>
-      <c r="G267" s="82"/>
-      <c r="H267" s="82"/>
+      <c r="F267" s="76"/>
+      <c r="G267" s="76"/>
+      <c r="H267" s="76"/>
       <c r="I267" s="79"/>
       <c r="J267" s="80"/>
       <c r="K267" s="80"/>
@@ -7515,12 +7526,12 @@
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18">
       <c r="A268" s="15"/>
       <c r="B268" s="2"/>
-      <c r="C268" s="82"/>
-      <c r="D268" s="82"/>
+      <c r="C268" s="76"/>
+      <c r="D268" s="76"/>
       <c r="E268" s="2"/>
-      <c r="F268" s="82"/>
-      <c r="G268" s="82"/>
-      <c r="H268" s="82"/>
+      <c r="F268" s="76"/>
+      <c r="G268" s="76"/>
+      <c r="H268" s="76"/>
       <c r="I268" s="79"/>
       <c r="J268" s="80"/>
       <c r="K268" s="80"/>
@@ -7537,12 +7548,12 @@
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18">
       <c r="A269" s="15"/>
       <c r="B269" s="2"/>
-      <c r="C269" s="82"/>
-      <c r="D269" s="82"/>
+      <c r="C269" s="76"/>
+      <c r="D269" s="76"/>
       <c r="E269" s="2"/>
-      <c r="F269" s="82"/>
-      <c r="G269" s="82"/>
-      <c r="H269" s="82"/>
+      <c r="F269" s="76"/>
+      <c r="G269" s="76"/>
+      <c r="H269" s="76"/>
       <c r="I269" s="79"/>
       <c r="J269" s="80"/>
       <c r="K269" s="80"/>
@@ -7559,12 +7570,12 @@
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18">
       <c r="A270" s="15"/>
       <c r="B270" s="2"/>
-      <c r="C270" s="82"/>
-      <c r="D270" s="82"/>
+      <c r="C270" s="76"/>
+      <c r="D270" s="76"/>
       <c r="E270" s="2"/>
-      <c r="F270" s="82"/>
-      <c r="G270" s="82"/>
-      <c r="H270" s="82"/>
+      <c r="F270" s="76"/>
+      <c r="G270" s="76"/>
+      <c r="H270" s="76"/>
       <c r="I270" s="79"/>
       <c r="J270" s="80"/>
       <c r="K270" s="80"/>
@@ -7581,12 +7592,12 @@
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18">
       <c r="A271" s="15"/>
       <c r="B271" s="2"/>
-      <c r="C271" s="82"/>
-      <c r="D271" s="82"/>
+      <c r="C271" s="76"/>
+      <c r="D271" s="76"/>
       <c r="E271" s="2"/>
-      <c r="F271" s="82"/>
-      <c r="G271" s="82"/>
-      <c r="H271" s="82"/>
+      <c r="F271" s="76"/>
+      <c r="G271" s="76"/>
+      <c r="H271" s="76"/>
       <c r="I271" s="79"/>
       <c r="J271" s="80"/>
       <c r="K271" s="80"/>
@@ -7603,12 +7614,12 @@
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18">
       <c r="A272" s="15"/>
       <c r="B272" s="2"/>
-      <c r="C272" s="82"/>
-      <c r="D272" s="82"/>
+      <c r="C272" s="76"/>
+      <c r="D272" s="76"/>
       <c r="E272" s="2"/>
-      <c r="F272" s="82"/>
-      <c r="G272" s="82"/>
-      <c r="H272" s="82"/>
+      <c r="F272" s="76"/>
+      <c r="G272" s="76"/>
+      <c r="H272" s="76"/>
       <c r="I272" s="79"/>
       <c r="J272" s="80"/>
       <c r="K272" s="80"/>
@@ -7625,12 +7636,12 @@
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18">
       <c r="A273" s="15"/>
       <c r="B273" s="2"/>
-      <c r="C273" s="82"/>
-      <c r="D273" s="82"/>
+      <c r="C273" s="76"/>
+      <c r="D273" s="76"/>
       <c r="E273" s="2"/>
-      <c r="F273" s="82"/>
-      <c r="G273" s="82"/>
-      <c r="H273" s="82"/>
+      <c r="F273" s="76"/>
+      <c r="G273" s="76"/>
+      <c r="H273" s="76"/>
       <c r="I273" s="79"/>
       <c r="J273" s="80"/>
       <c r="K273" s="80"/>
@@ -7647,12 +7658,12 @@
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18">
       <c r="A274" s="15"/>
       <c r="B274" s="2"/>
-      <c r="C274" s="82"/>
-      <c r="D274" s="82"/>
+      <c r="C274" s="76"/>
+      <c r="D274" s="76"/>
       <c r="E274" s="2"/>
-      <c r="F274" s="82"/>
-      <c r="G274" s="82"/>
-      <c r="H274" s="82"/>
+      <c r="F274" s="76"/>
+      <c r="G274" s="76"/>
+      <c r="H274" s="76"/>
       <c r="I274" s="79"/>
       <c r="J274" s="80"/>
       <c r="K274" s="80"/>
@@ -7669,12 +7680,12 @@
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18">
       <c r="A275" s="15"/>
       <c r="B275" s="2"/>
-      <c r="C275" s="82"/>
-      <c r="D275" s="82"/>
+      <c r="C275" s="76"/>
+      <c r="D275" s="76"/>
       <c r="E275" s="2"/>
-      <c r="F275" s="82"/>
-      <c r="G275" s="82"/>
-      <c r="H275" s="82"/>
+      <c r="F275" s="76"/>
+      <c r="G275" s="76"/>
+      <c r="H275" s="76"/>
       <c r="I275" s="79"/>
       <c r="J275" s="80"/>
       <c r="K275" s="80"/>
@@ -7691,12 +7702,12 @@
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18">
       <c r="A276" s="15"/>
       <c r="B276" s="2"/>
-      <c r="C276" s="82"/>
-      <c r="D276" s="82"/>
+      <c r="C276" s="76"/>
+      <c r="D276" s="76"/>
       <c r="E276" s="2"/>
-      <c r="F276" s="82"/>
-      <c r="G276" s="82"/>
-      <c r="H276" s="82"/>
+      <c r="F276" s="76"/>
+      <c r="G276" s="76"/>
+      <c r="H276" s="76"/>
       <c r="I276" s="79"/>
       <c r="J276" s="80"/>
       <c r="K276" s="80"/>
@@ -7713,12 +7724,12 @@
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18">
       <c r="A277" s="15"/>
       <c r="B277" s="2"/>
-      <c r="C277" s="82"/>
-      <c r="D277" s="82"/>
+      <c r="C277" s="76"/>
+      <c r="D277" s="76"/>
       <c r="E277" s="2"/>
-      <c r="F277" s="82"/>
-      <c r="G277" s="82"/>
-      <c r="H277" s="82"/>
+      <c r="F277" s="76"/>
+      <c r="G277" s="76"/>
+      <c r="H277" s="76"/>
       <c r="I277" s="79"/>
       <c r="J277" s="80"/>
       <c r="K277" s="80"/>
@@ -7735,12 +7746,12 @@
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18">
       <c r="A278" s="15"/>
       <c r="B278" s="2"/>
-      <c r="C278" s="82"/>
-      <c r="D278" s="82"/>
+      <c r="C278" s="76"/>
+      <c r="D278" s="76"/>
       <c r="E278" s="2"/>
-      <c r="F278" s="82"/>
-      <c r="G278" s="82"/>
-      <c r="H278" s="82"/>
+      <c r="F278" s="76"/>
+      <c r="G278" s="76"/>
+      <c r="H278" s="76"/>
       <c r="I278" s="79"/>
       <c r="J278" s="80"/>
       <c r="K278" s="80"/>
@@ -7757,12 +7768,12 @@
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18">
       <c r="A279" s="15"/>
       <c r="B279" s="2"/>
-      <c r="C279" s="82"/>
-      <c r="D279" s="82"/>
+      <c r="C279" s="76"/>
+      <c r="D279" s="76"/>
       <c r="E279" s="2"/>
-      <c r="F279" s="82"/>
-      <c r="G279" s="82"/>
-      <c r="H279" s="82"/>
+      <c r="F279" s="76"/>
+      <c r="G279" s="76"/>
+      <c r="H279" s="76"/>
       <c r="I279" s="79"/>
       <c r="J279" s="80"/>
       <c r="K279" s="80"/>
@@ -7779,12 +7790,12 @@
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18">
       <c r="A280" s="15"/>
       <c r="B280" s="2"/>
-      <c r="C280" s="82"/>
-      <c r="D280" s="82"/>
+      <c r="C280" s="76"/>
+      <c r="D280" s="76"/>
       <c r="E280" s="2"/>
-      <c r="F280" s="82"/>
-      <c r="G280" s="82"/>
-      <c r="H280" s="82"/>
+      <c r="F280" s="76"/>
+      <c r="G280" s="76"/>
+      <c r="H280" s="76"/>
       <c r="I280" s="79"/>
       <c r="J280" s="80"/>
       <c r="K280" s="80"/>
@@ -7801,12 +7812,12 @@
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18">
       <c r="A281" s="15"/>
       <c r="B281" s="2"/>
-      <c r="C281" s="82"/>
-      <c r="D281" s="82"/>
+      <c r="C281" s="76"/>
+      <c r="D281" s="76"/>
       <c r="E281" s="2"/>
-      <c r="F281" s="82"/>
-      <c r="G281" s="82"/>
-      <c r="H281" s="82"/>
+      <c r="F281" s="76"/>
+      <c r="G281" s="76"/>
+      <c r="H281" s="76"/>
       <c r="I281" s="79"/>
       <c r="J281" s="80"/>
       <c r="K281" s="80"/>
@@ -7823,12 +7834,12 @@
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18">
       <c r="A282" s="15"/>
       <c r="B282" s="2"/>
-      <c r="C282" s="82"/>
-      <c r="D282" s="82"/>
+      <c r="C282" s="76"/>
+      <c r="D282" s="76"/>
       <c r="E282" s="2"/>
-      <c r="F282" s="82"/>
-      <c r="G282" s="82"/>
-      <c r="H282" s="82"/>
+      <c r="F282" s="76"/>
+      <c r="G282" s="76"/>
+      <c r="H282" s="76"/>
       <c r="I282" s="79"/>
       <c r="J282" s="80"/>
       <c r="K282" s="80"/>
@@ -7845,12 +7856,12 @@
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18">
       <c r="A283" s="15"/>
       <c r="B283" s="2"/>
-      <c r="C283" s="82"/>
-      <c r="D283" s="82"/>
+      <c r="C283" s="76"/>
+      <c r="D283" s="76"/>
       <c r="E283" s="2"/>
-      <c r="F283" s="82"/>
-      <c r="G283" s="82"/>
-      <c r="H283" s="82"/>
+      <c r="F283" s="76"/>
+      <c r="G283" s="76"/>
+      <c r="H283" s="76"/>
       <c r="I283" s="79"/>
       <c r="J283" s="80"/>
       <c r="K283" s="80"/>
@@ -7867,12 +7878,12 @@
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18">
       <c r="A284" s="15"/>
       <c r="B284" s="2"/>
-      <c r="C284" s="82"/>
-      <c r="D284" s="82"/>
+      <c r="C284" s="76"/>
+      <c r="D284" s="76"/>
       <c r="E284" s="2"/>
-      <c r="F284" s="82"/>
-      <c r="G284" s="82"/>
-      <c r="H284" s="82"/>
+      <c r="F284" s="76"/>
+      <c r="G284" s="76"/>
+      <c r="H284" s="76"/>
       <c r="I284" s="79"/>
       <c r="J284" s="80"/>
       <c r="K284" s="80"/>
@@ -7889,12 +7900,12 @@
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18">
       <c r="A285" s="15"/>
       <c r="B285" s="2"/>
-      <c r="C285" s="82"/>
-      <c r="D285" s="82"/>
+      <c r="C285" s="76"/>
+      <c r="D285" s="76"/>
       <c r="E285" s="2"/>
-      <c r="F285" s="82"/>
-      <c r="G285" s="82"/>
-      <c r="H285" s="82"/>
+      <c r="F285" s="76"/>
+      <c r="G285" s="76"/>
+      <c r="H285" s="76"/>
       <c r="I285" s="79"/>
       <c r="J285" s="80"/>
       <c r="K285" s="80"/>
@@ -7911,12 +7922,12 @@
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18">
       <c r="A286" s="15"/>
       <c r="B286" s="2"/>
-      <c r="C286" s="82"/>
-      <c r="D286" s="82"/>
+      <c r="C286" s="76"/>
+      <c r="D286" s="76"/>
       <c r="E286" s="2"/>
-      <c r="F286" s="82"/>
-      <c r="G286" s="82"/>
-      <c r="H286" s="82"/>
+      <c r="F286" s="76"/>
+      <c r="G286" s="76"/>
+      <c r="H286" s="76"/>
       <c r="I286" s="79"/>
       <c r="J286" s="80"/>
       <c r="K286" s="80"/>
@@ -7933,12 +7944,12 @@
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18">
       <c r="A287" s="15"/>
       <c r="B287" s="2"/>
-      <c r="C287" s="82"/>
-      <c r="D287" s="82"/>
+      <c r="C287" s="76"/>
+      <c r="D287" s="76"/>
       <c r="E287" s="2"/>
-      <c r="F287" s="82"/>
-      <c r="G287" s="82"/>
-      <c r="H287" s="82"/>
+      <c r="F287" s="76"/>
+      <c r="G287" s="76"/>
+      <c r="H287" s="76"/>
       <c r="I287" s="79"/>
       <c r="J287" s="80"/>
       <c r="K287" s="80"/>
@@ -7955,12 +7966,12 @@
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18">
       <c r="A288" s="15"/>
       <c r="B288" s="2"/>
-      <c r="C288" s="82"/>
-      <c r="D288" s="82"/>
+      <c r="C288" s="76"/>
+      <c r="D288" s="76"/>
       <c r="E288" s="2"/>
-      <c r="F288" s="82"/>
-      <c r="G288" s="82"/>
-      <c r="H288" s="82"/>
+      <c r="F288" s="76"/>
+      <c r="G288" s="76"/>
+      <c r="H288" s="76"/>
       <c r="I288" s="79"/>
       <c r="J288" s="80"/>
       <c r="K288" s="80"/>
@@ -7977,12 +7988,12 @@
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18">
       <c r="A289" s="15"/>
       <c r="B289" s="2"/>
-      <c r="C289" s="82"/>
-      <c r="D289" s="82"/>
+      <c r="C289" s="76"/>
+      <c r="D289" s="76"/>
       <c r="E289" s="2"/>
-      <c r="F289" s="82"/>
-      <c r="G289" s="82"/>
-      <c r="H289" s="82"/>
+      <c r="F289" s="76"/>
+      <c r="G289" s="76"/>
+      <c r="H289" s="76"/>
       <c r="I289" s="79"/>
       <c r="J289" s="80"/>
       <c r="K289" s="80"/>
@@ -7999,12 +8010,12 @@
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18">
       <c r="A290" s="15"/>
       <c r="B290" s="2"/>
-      <c r="C290" s="82"/>
-      <c r="D290" s="82"/>
+      <c r="C290" s="76"/>
+      <c r="D290" s="76"/>
       <c r="E290" s="2"/>
-      <c r="F290" s="82"/>
-      <c r="G290" s="82"/>
-      <c r="H290" s="82"/>
+      <c r="F290" s="76"/>
+      <c r="G290" s="76"/>
+      <c r="H290" s="76"/>
       <c r="I290" s="79"/>
       <c r="J290" s="80"/>
       <c r="K290" s="80"/>
@@ -8021,12 +8032,12 @@
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18">
       <c r="A291" s="15"/>
       <c r="B291" s="2"/>
-      <c r="C291" s="82"/>
-      <c r="D291" s="82"/>
+      <c r="C291" s="76"/>
+      <c r="D291" s="76"/>
       <c r="E291" s="2"/>
-      <c r="F291" s="82"/>
-      <c r="G291" s="82"/>
-      <c r="H291" s="82"/>
+      <c r="F291" s="76"/>
+      <c r="G291" s="76"/>
+      <c r="H291" s="76"/>
       <c r="I291" s="79"/>
       <c r="J291" s="80"/>
       <c r="K291" s="80"/>
@@ -8043,12 +8054,12 @@
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18">
       <c r="A292" s="15"/>
       <c r="B292" s="2"/>
-      <c r="C292" s="82"/>
-      <c r="D292" s="82"/>
+      <c r="C292" s="76"/>
+      <c r="D292" s="76"/>
       <c r="E292" s="2"/>
-      <c r="F292" s="82"/>
-      <c r="G292" s="82"/>
-      <c r="H292" s="82"/>
+      <c r="F292" s="76"/>
+      <c r="G292" s="76"/>
+      <c r="H292" s="76"/>
       <c r="I292" s="79"/>
       <c r="J292" s="80"/>
       <c r="K292" s="80"/>
@@ -8065,12 +8076,12 @@
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18">
       <c r="A293" s="15"/>
       <c r="B293" s="2"/>
-      <c r="C293" s="82"/>
-      <c r="D293" s="82"/>
+      <c r="C293" s="76"/>
+      <c r="D293" s="76"/>
       <c r="E293" s="2"/>
-      <c r="F293" s="82"/>
-      <c r="G293" s="82"/>
-      <c r="H293" s="82"/>
+      <c r="F293" s="76"/>
+      <c r="G293" s="76"/>
+      <c r="H293" s="76"/>
       <c r="I293" s="79"/>
       <c r="J293" s="80"/>
       <c r="K293" s="80"/>
@@ -8087,12 +8098,12 @@
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18">
       <c r="A294" s="15"/>
       <c r="B294" s="2"/>
-      <c r="C294" s="82"/>
-      <c r="D294" s="82"/>
+      <c r="C294" s="76"/>
+      <c r="D294" s="76"/>
       <c r="E294" s="2"/>
-      <c r="F294" s="82"/>
-      <c r="G294" s="82"/>
-      <c r="H294" s="82"/>
+      <c r="F294" s="76"/>
+      <c r="G294" s="76"/>
+      <c r="H294" s="76"/>
       <c r="I294" s="79"/>
       <c r="J294" s="80"/>
       <c r="K294" s="80"/>
@@ -8109,12 +8120,12 @@
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18">
       <c r="A295" s="15"/>
       <c r="B295" s="2"/>
-      <c r="C295" s="82"/>
-      <c r="D295" s="82"/>
+      <c r="C295" s="76"/>
+      <c r="D295" s="76"/>
       <c r="E295" s="2"/>
-      <c r="F295" s="82"/>
-      <c r="G295" s="82"/>
-      <c r="H295" s="82"/>
+      <c r="F295" s="76"/>
+      <c r="G295" s="76"/>
+      <c r="H295" s="76"/>
       <c r="I295" s="79"/>
       <c r="J295" s="80"/>
       <c r="K295" s="80"/>
@@ -8131,12 +8142,12 @@
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18">
       <c r="A296" s="15"/>
       <c r="B296" s="2"/>
-      <c r="C296" s="82"/>
-      <c r="D296" s="82"/>
+      <c r="C296" s="76"/>
+      <c r="D296" s="76"/>
       <c r="E296" s="2"/>
-      <c r="F296" s="82"/>
-      <c r="G296" s="82"/>
-      <c r="H296" s="82"/>
+      <c r="F296" s="76"/>
+      <c r="G296" s="76"/>
+      <c r="H296" s="76"/>
       <c r="I296" s="79"/>
       <c r="J296" s="80"/>
       <c r="K296" s="80"/>
@@ -8153,12 +8164,12 @@
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18">
       <c r="A297" s="15"/>
       <c r="B297" s="2"/>
-      <c r="C297" s="82"/>
-      <c r="D297" s="82"/>
+      <c r="C297" s="76"/>
+      <c r="D297" s="76"/>
       <c r="E297" s="2"/>
-      <c r="F297" s="82"/>
-      <c r="G297" s="82"/>
-      <c r="H297" s="82"/>
+      <c r="F297" s="76"/>
+      <c r="G297" s="76"/>
+      <c r="H297" s="76"/>
       <c r="I297" s="79"/>
       <c r="J297" s="80"/>
       <c r="K297" s="80"/>
@@ -8175,12 +8186,12 @@
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18">
       <c r="A298" s="15"/>
       <c r="B298" s="2"/>
-      <c r="C298" s="82"/>
-      <c r="D298" s="82"/>
+      <c r="C298" s="76"/>
+      <c r="D298" s="76"/>
       <c r="E298" s="2"/>
-      <c r="F298" s="82"/>
-      <c r="G298" s="82"/>
-      <c r="H298" s="82"/>
+      <c r="F298" s="76"/>
+      <c r="G298" s="76"/>
+      <c r="H298" s="76"/>
       <c r="I298" s="79"/>
       <c r="J298" s="80"/>
       <c r="K298" s="80"/>
@@ -8197,12 +8208,12 @@
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18">
       <c r="A299" s="15"/>
       <c r="B299" s="2"/>
-      <c r="C299" s="82"/>
-      <c r="D299" s="82"/>
+      <c r="C299" s="76"/>
+      <c r="D299" s="76"/>
       <c r="E299" s="2"/>
-      <c r="F299" s="82"/>
-      <c r="G299" s="82"/>
-      <c r="H299" s="82"/>
+      <c r="F299" s="76"/>
+      <c r="G299" s="76"/>
+      <c r="H299" s="76"/>
       <c r="I299" s="79"/>
       <c r="J299" s="80"/>
       <c r="K299" s="80"/>
@@ -8219,12 +8230,12 @@
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18">
       <c r="A300" s="15"/>
       <c r="B300" s="2"/>
-      <c r="C300" s="82"/>
-      <c r="D300" s="82"/>
+      <c r="C300" s="76"/>
+      <c r="D300" s="76"/>
       <c r="E300" s="2"/>
-      <c r="F300" s="82"/>
-      <c r="G300" s="82"/>
-      <c r="H300" s="82"/>
+      <c r="F300" s="76"/>
+      <c r="G300" s="76"/>
+      <c r="H300" s="76"/>
       <c r="I300" s="79"/>
       <c r="J300" s="80"/>
       <c r="K300" s="80"/>
@@ -8241,12 +8252,12 @@
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18">
       <c r="A301" s="15"/>
       <c r="B301" s="2"/>
-      <c r="C301" s="82"/>
-      <c r="D301" s="82"/>
+      <c r="C301" s="76"/>
+      <c r="D301" s="76"/>
       <c r="E301" s="2"/>
-      <c r="F301" s="82"/>
-      <c r="G301" s="82"/>
-      <c r="H301" s="82"/>
+      <c r="F301" s="76"/>
+      <c r="G301" s="76"/>
+      <c r="H301" s="76"/>
       <c r="I301" s="79"/>
       <c r="J301" s="80"/>
       <c r="K301" s="80"/>
@@ -8263,12 +8274,12 @@
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18">
       <c r="A302" s="15"/>
       <c r="B302" s="2"/>
-      <c r="C302" s="82"/>
-      <c r="D302" s="82"/>
+      <c r="C302" s="76"/>
+      <c r="D302" s="76"/>
       <c r="E302" s="2"/>
-      <c r="F302" s="82"/>
-      <c r="G302" s="82"/>
-      <c r="H302" s="82"/>
+      <c r="F302" s="76"/>
+      <c r="G302" s="76"/>
+      <c r="H302" s="76"/>
       <c r="I302" s="79"/>
       <c r="J302" s="80"/>
       <c r="K302" s="80"/>
@@ -8285,12 +8296,12 @@
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18">
       <c r="A303" s="15"/>
       <c r="B303" s="2"/>
-      <c r="C303" s="82"/>
-      <c r="D303" s="82"/>
+      <c r="C303" s="76"/>
+      <c r="D303" s="76"/>
       <c r="E303" s="2"/>
-      <c r="F303" s="82"/>
-      <c r="G303" s="82"/>
-      <c r="H303" s="82"/>
+      <c r="F303" s="76"/>
+      <c r="G303" s="76"/>
+      <c r="H303" s="76"/>
       <c r="I303" s="79"/>
       <c r="J303" s="80"/>
       <c r="K303" s="80"/>
@@ -8307,12 +8318,12 @@
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18">
       <c r="A304" s="15"/>
       <c r="B304" s="2"/>
-      <c r="C304" s="82"/>
-      <c r="D304" s="82"/>
+      <c r="C304" s="76"/>
+      <c r="D304" s="76"/>
       <c r="E304" s="2"/>
-      <c r="F304" s="82"/>
-      <c r="G304" s="82"/>
-      <c r="H304" s="82"/>
+      <c r="F304" s="76"/>
+      <c r="G304" s="76"/>
+      <c r="H304" s="76"/>
       <c r="I304" s="79"/>
       <c r="J304" s="80"/>
       <c r="K304" s="80"/>
@@ -8329,12 +8340,12 @@
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18">
       <c r="A305" s="15"/>
       <c r="B305" s="2"/>
-      <c r="C305" s="82"/>
-      <c r="D305" s="82"/>
+      <c r="C305" s="76"/>
+      <c r="D305" s="76"/>
       <c r="E305" s="2"/>
-      <c r="F305" s="82"/>
-      <c r="G305" s="82"/>
-      <c r="H305" s="82"/>
+      <c r="F305" s="76"/>
+      <c r="G305" s="76"/>
+      <c r="H305" s="76"/>
       <c r="I305" s="79"/>
       <c r="J305" s="80"/>
       <c r="K305" s="80"/>
@@ -8351,12 +8362,12 @@
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
-      <c r="C306" s="82"/>
-      <c r="D306" s="82"/>
+      <c r="C306" s="76"/>
+      <c r="D306" s="76"/>
       <c r="E306" s="2"/>
-      <c r="F306" s="82"/>
-      <c r="G306" s="82"/>
-      <c r="H306" s="82"/>
+      <c r="F306" s="76"/>
+      <c r="G306" s="76"/>
+      <c r="H306" s="76"/>
       <c r="I306" s="79"/>
       <c r="J306" s="80"/>
       <c r="K306" s="80"/>
@@ -8373,12 +8384,12 @@
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
-      <c r="C307" s="82"/>
-      <c r="D307" s="82"/>
+      <c r="C307" s="76"/>
+      <c r="D307" s="76"/>
       <c r="E307" s="2"/>
-      <c r="F307" s="82"/>
-      <c r="G307" s="82"/>
-      <c r="H307" s="82"/>
+      <c r="F307" s="76"/>
+      <c r="G307" s="76"/>
+      <c r="H307" s="76"/>
       <c r="I307" s="79"/>
       <c r="J307" s="80"/>
       <c r="K307" s="80"/>
@@ -8395,12 +8406,12 @@
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
-      <c r="C308" s="82"/>
-      <c r="D308" s="82"/>
+      <c r="C308" s="76"/>
+      <c r="D308" s="76"/>
       <c r="E308" s="2"/>
-      <c r="F308" s="82"/>
-      <c r="G308" s="82"/>
-      <c r="H308" s="82"/>
+      <c r="F308" s="76"/>
+      <c r="G308" s="76"/>
+      <c r="H308" s="76"/>
       <c r="I308" s="79"/>
       <c r="J308" s="80"/>
       <c r="K308" s="80"/>
@@ -8417,12 +8428,12 @@
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
-      <c r="C309" s="82"/>
-      <c r="D309" s="82"/>
+      <c r="C309" s="76"/>
+      <c r="D309" s="76"/>
       <c r="E309" s="2"/>
-      <c r="F309" s="82"/>
-      <c r="G309" s="82"/>
-      <c r="H309" s="82"/>
+      <c r="F309" s="76"/>
+      <c r="G309" s="76"/>
+      <c r="H309" s="76"/>
       <c r="I309" s="79"/>
       <c r="J309" s="80"/>
       <c r="K309" s="80"/>
@@ -8439,12 +8450,12 @@
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
-      <c r="C310" s="82"/>
-      <c r="D310" s="82"/>
+      <c r="C310" s="76"/>
+      <c r="D310" s="76"/>
       <c r="E310" s="2"/>
-      <c r="F310" s="82"/>
-      <c r="G310" s="82"/>
-      <c r="H310" s="82"/>
+      <c r="F310" s="76"/>
+      <c r="G310" s="76"/>
+      <c r="H310" s="76"/>
       <c r="I310" s="79"/>
       <c r="J310" s="80"/>
       <c r="K310" s="80"/>
@@ -8461,12 +8472,12 @@
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
-      <c r="C311" s="82"/>
-      <c r="D311" s="82"/>
+      <c r="C311" s="76"/>
+      <c r="D311" s="76"/>
       <c r="E311" s="2"/>
-      <c r="F311" s="82"/>
-      <c r="G311" s="82"/>
-      <c r="H311" s="82"/>
+      <c r="F311" s="76"/>
+      <c r="G311" s="76"/>
+      <c r="H311" s="76"/>
       <c r="I311" s="79"/>
       <c r="J311" s="80"/>
       <c r="K311" s="80"/>
@@ -8483,12 +8494,12 @@
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
-      <c r="C312" s="82"/>
-      <c r="D312" s="82"/>
+      <c r="C312" s="76"/>
+      <c r="D312" s="76"/>
       <c r="E312" s="2"/>
-      <c r="F312" s="82"/>
-      <c r="G312" s="82"/>
-      <c r="H312" s="82"/>
+      <c r="F312" s="76"/>
+      <c r="G312" s="76"/>
+      <c r="H312" s="76"/>
       <c r="I312" s="79"/>
       <c r="J312" s="80"/>
       <c r="K312" s="80"/>
@@ -8505,12 +8516,12 @@
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
-      <c r="C313" s="82"/>
-      <c r="D313" s="82"/>
+      <c r="C313" s="76"/>
+      <c r="D313" s="76"/>
       <c r="E313" s="2"/>
-      <c r="F313" s="82"/>
-      <c r="G313" s="82"/>
-      <c r="H313" s="82"/>
+      <c r="F313" s="76"/>
+      <c r="G313" s="76"/>
+      <c r="H313" s="76"/>
       <c r="I313" s="79"/>
       <c r="J313" s="80"/>
       <c r="K313" s="80"/>
@@ -8527,12 +8538,12 @@
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
-      <c r="C314" s="82"/>
-      <c r="D314" s="82"/>
+      <c r="C314" s="76"/>
+      <c r="D314" s="76"/>
       <c r="E314" s="2"/>
-      <c r="F314" s="82"/>
-      <c r="G314" s="82"/>
-      <c r="H314" s="82"/>
+      <c r="F314" s="76"/>
+      <c r="G314" s="76"/>
+      <c r="H314" s="76"/>
       <c r="I314" s="79"/>
       <c r="J314" s="80"/>
       <c r="K314" s="80"/>
@@ -8549,12 +8560,12 @@
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
-      <c r="C315" s="82"/>
-      <c r="D315" s="82"/>
+      <c r="C315" s="76"/>
+      <c r="D315" s="76"/>
       <c r="E315" s="2"/>
-      <c r="F315" s="82"/>
-      <c r="G315" s="82"/>
-      <c r="H315" s="82"/>
+      <c r="F315" s="76"/>
+      <c r="G315" s="76"/>
+      <c r="H315" s="76"/>
       <c r="I315" s="79"/>
       <c r="J315" s="80"/>
       <c r="K315" s="80"/>
@@ -8571,12 +8582,12 @@
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
-      <c r="C316" s="82"/>
-      <c r="D316" s="82"/>
+      <c r="C316" s="76"/>
+      <c r="D316" s="76"/>
       <c r="E316" s="2"/>
-      <c r="F316" s="82"/>
-      <c r="G316" s="82"/>
-      <c r="H316" s="82"/>
+      <c r="F316" s="76"/>
+      <c r="G316" s="76"/>
+      <c r="H316" s="76"/>
       <c r="I316" s="79"/>
       <c r="J316" s="80"/>
       <c r="K316" s="80"/>
@@ -8593,12 +8604,12 @@
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
-      <c r="C317" s="82"/>
-      <c r="D317" s="82"/>
+      <c r="C317" s="76"/>
+      <c r="D317" s="76"/>
       <c r="E317" s="2"/>
-      <c r="F317" s="82"/>
-      <c r="G317" s="82"/>
-      <c r="H317" s="82"/>
+      <c r="F317" s="76"/>
+      <c r="G317" s="76"/>
+      <c r="H317" s="76"/>
       <c r="I317" s="79"/>
       <c r="J317" s="80"/>
       <c r="K317" s="80"/>
@@ -8615,12 +8626,12 @@
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
-      <c r="C318" s="82"/>
-      <c r="D318" s="82"/>
+      <c r="C318" s="76"/>
+      <c r="D318" s="76"/>
       <c r="E318" s="2"/>
-      <c r="F318" s="82"/>
-      <c r="G318" s="82"/>
-      <c r="H318" s="82"/>
+      <c r="F318" s="76"/>
+      <c r="G318" s="76"/>
+      <c r="H318" s="76"/>
       <c r="I318" s="79"/>
       <c r="J318" s="80"/>
       <c r="K318" s="80"/>
@@ -8637,12 +8648,12 @@
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
-      <c r="C319" s="82"/>
-      <c r="D319" s="82"/>
+      <c r="C319" s="76"/>
+      <c r="D319" s="76"/>
       <c r="E319" s="2"/>
-      <c r="F319" s="82"/>
-      <c r="G319" s="82"/>
-      <c r="H319" s="82"/>
+      <c r="F319" s="76"/>
+      <c r="G319" s="76"/>
+      <c r="H319" s="76"/>
       <c r="I319" s="79"/>
       <c r="J319" s="80"/>
       <c r="K319" s="80"/>
@@ -8659,12 +8670,12 @@
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
-      <c r="C320" s="82"/>
-      <c r="D320" s="82"/>
+      <c r="C320" s="76"/>
+      <c r="D320" s="76"/>
       <c r="E320" s="2"/>
-      <c r="F320" s="82"/>
-      <c r="G320" s="82"/>
-      <c r="H320" s="82"/>
+      <c r="F320" s="76"/>
+      <c r="G320" s="76"/>
+      <c r="H320" s="76"/>
       <c r="I320" s="79"/>
       <c r="J320" s="80"/>
       <c r="K320" s="80"/>
@@ -8681,12 +8692,12 @@
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
-      <c r="C321" s="82"/>
-      <c r="D321" s="82"/>
+      <c r="C321" s="76"/>
+      <c r="D321" s="76"/>
       <c r="E321" s="2"/>
-      <c r="F321" s="82"/>
-      <c r="G321" s="82"/>
-      <c r="H321" s="82"/>
+      <c r="F321" s="76"/>
+      <c r="G321" s="76"/>
+      <c r="H321" s="76"/>
       <c r="I321" s="79"/>
       <c r="J321" s="80"/>
       <c r="K321" s="80"/>
@@ -8703,12 +8714,12 @@
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
-      <c r="C322" s="82"/>
-      <c r="D322" s="82"/>
+      <c r="C322" s="76"/>
+      <c r="D322" s="76"/>
       <c r="E322" s="2"/>
-      <c r="F322" s="82"/>
-      <c r="G322" s="82"/>
-      <c r="H322" s="82"/>
+      <c r="F322" s="76"/>
+      <c r="G322" s="76"/>
+      <c r="H322" s="76"/>
       <c r="I322" s="79"/>
       <c r="J322" s="80"/>
       <c r="K322" s="80"/>
@@ -8725,12 +8736,12 @@
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
-      <c r="C323" s="82"/>
-      <c r="D323" s="82"/>
+      <c r="C323" s="76"/>
+      <c r="D323" s="76"/>
       <c r="E323" s="2"/>
-      <c r="F323" s="82"/>
-      <c r="G323" s="82"/>
-      <c r="H323" s="82"/>
+      <c r="F323" s="76"/>
+      <c r="G323" s="76"/>
+      <c r="H323" s="76"/>
       <c r="I323" s="79"/>
       <c r="J323" s="80"/>
       <c r="K323" s="80"/>
@@ -8747,12 +8758,12 @@
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
-      <c r="C324" s="82"/>
-      <c r="D324" s="82"/>
+      <c r="C324" s="76"/>
+      <c r="D324" s="76"/>
       <c r="E324" s="2"/>
-      <c r="F324" s="82"/>
-      <c r="G324" s="82"/>
-      <c r="H324" s="82"/>
+      <c r="F324" s="76"/>
+      <c r="G324" s="76"/>
+      <c r="H324" s="76"/>
       <c r="I324" s="79"/>
       <c r="J324" s="80"/>
       <c r="K324" s="80"/>
@@ -8769,12 +8780,12 @@
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
-      <c r="C325" s="82"/>
-      <c r="D325" s="82"/>
+      <c r="C325" s="76"/>
+      <c r="D325" s="76"/>
       <c r="E325" s="2"/>
-      <c r="F325" s="82"/>
-      <c r="G325" s="82"/>
-      <c r="H325" s="82"/>
+      <c r="F325" s="76"/>
+      <c r="G325" s="76"/>
+      <c r="H325" s="76"/>
       <c r="I325" s="79"/>
       <c r="J325" s="80"/>
       <c r="K325" s="80"/>
@@ -8791,12 +8802,12 @@
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
-      <c r="C326" s="82"/>
-      <c r="D326" s="82"/>
+      <c r="C326" s="76"/>
+      <c r="D326" s="76"/>
       <c r="E326" s="2"/>
-      <c r="F326" s="82"/>
-      <c r="G326" s="82"/>
-      <c r="H326" s="82"/>
+      <c r="F326" s="76"/>
+      <c r="G326" s="76"/>
+      <c r="H326" s="76"/>
       <c r="I326" s="79"/>
       <c r="J326" s="80"/>
       <c r="K326" s="80"/>
@@ -8813,12 +8824,12 @@
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
-      <c r="C327" s="82"/>
-      <c r="D327" s="82"/>
+      <c r="C327" s="76"/>
+      <c r="D327" s="76"/>
       <c r="E327" s="2"/>
-      <c r="F327" s="82"/>
-      <c r="G327" s="82"/>
-      <c r="H327" s="82"/>
+      <c r="F327" s="76"/>
+      <c r="G327" s="76"/>
+      <c r="H327" s="76"/>
       <c r="I327" s="79"/>
       <c r="J327" s="80"/>
       <c r="K327" s="80"/>
@@ -8835,12 +8846,12 @@
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
-      <c r="C328" s="82"/>
-      <c r="D328" s="82"/>
+      <c r="C328" s="76"/>
+      <c r="D328" s="76"/>
       <c r="E328" s="2"/>
-      <c r="F328" s="82"/>
-      <c r="G328" s="82"/>
-      <c r="H328" s="82"/>
+      <c r="F328" s="76"/>
+      <c r="G328" s="76"/>
+      <c r="H328" s="76"/>
       <c r="I328" s="79"/>
       <c r="J328" s="80"/>
       <c r="K328" s="80"/>
@@ -8857,12 +8868,12 @@
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
-      <c r="C329" s="82"/>
-      <c r="D329" s="82"/>
+      <c r="C329" s="76"/>
+      <c r="D329" s="76"/>
       <c r="E329" s="2"/>
-      <c r="F329" s="82"/>
-      <c r="G329" s="82"/>
-      <c r="H329" s="82"/>
+      <c r="F329" s="76"/>
+      <c r="G329" s="76"/>
+      <c r="H329" s="76"/>
       <c r="I329" s="79"/>
       <c r="J329" s="80"/>
       <c r="K329" s="80"/>
@@ -8879,12 +8890,12 @@
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
-      <c r="C330" s="82"/>
-      <c r="D330" s="82"/>
+      <c r="C330" s="76"/>
+      <c r="D330" s="76"/>
       <c r="E330" s="2"/>
-      <c r="F330" s="82"/>
-      <c r="G330" s="82"/>
-      <c r="H330" s="82"/>
+      <c r="F330" s="76"/>
+      <c r="G330" s="76"/>
+      <c r="H330" s="76"/>
       <c r="I330" s="79"/>
       <c r="J330" s="80"/>
       <c r="K330" s="80"/>
@@ -8901,12 +8912,12 @@
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
-      <c r="C331" s="82"/>
-      <c r="D331" s="82"/>
+      <c r="C331" s="76"/>
+      <c r="D331" s="76"/>
       <c r="E331" s="2"/>
-      <c r="F331" s="82"/>
-      <c r="G331" s="82"/>
-      <c r="H331" s="82"/>
+      <c r="F331" s="76"/>
+      <c r="G331" s="76"/>
+      <c r="H331" s="76"/>
       <c r="I331" s="79"/>
       <c r="J331" s="80"/>
       <c r="K331" s="80"/>
@@ -8923,12 +8934,12 @@
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
-      <c r="C332" s="82"/>
-      <c r="D332" s="82"/>
+      <c r="C332" s="76"/>
+      <c r="D332" s="76"/>
       <c r="E332" s="2"/>
-      <c r="F332" s="82"/>
-      <c r="G332" s="82"/>
-      <c r="H332" s="82"/>
+      <c r="F332" s="76"/>
+      <c r="G332" s="76"/>
+      <c r="H332" s="76"/>
       <c r="I332" s="79"/>
       <c r="J332" s="80"/>
       <c r="K332" s="80"/>
@@ -8945,12 +8956,12 @@
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
-      <c r="C333" s="82"/>
-      <c r="D333" s="82"/>
+      <c r="C333" s="76"/>
+      <c r="D333" s="76"/>
       <c r="E333" s="2"/>
-      <c r="F333" s="82"/>
-      <c r="G333" s="82"/>
-      <c r="H333" s="82"/>
+      <c r="F333" s="76"/>
+      <c r="G333" s="76"/>
+      <c r="H333" s="76"/>
       <c r="I333" s="79"/>
       <c r="J333" s="80"/>
       <c r="K333" s="80"/>
@@ -8967,12 +8978,12 @@
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
-      <c r="C334" s="82"/>
-      <c r="D334" s="82"/>
+      <c r="C334" s="76"/>
+      <c r="D334" s="76"/>
       <c r="E334" s="2"/>
-      <c r="F334" s="82"/>
-      <c r="G334" s="82"/>
-      <c r="H334" s="82"/>
+      <c r="F334" s="76"/>
+      <c r="G334" s="76"/>
+      <c r="H334" s="76"/>
       <c r="I334" s="79"/>
       <c r="J334" s="80"/>
       <c r="K334" s="80"/>
@@ -8989,12 +9000,12 @@
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
-      <c r="C335" s="82"/>
-      <c r="D335" s="82"/>
+      <c r="C335" s="76"/>
+      <c r="D335" s="76"/>
       <c r="E335" s="2"/>
-      <c r="F335" s="82"/>
-      <c r="G335" s="82"/>
-      <c r="H335" s="82"/>
+      <c r="F335" s="76"/>
+      <c r="G335" s="76"/>
+      <c r="H335" s="76"/>
       <c r="I335" s="79"/>
       <c r="J335" s="80"/>
       <c r="K335" s="80"/>
@@ -9011,12 +9022,12 @@
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
-      <c r="C336" s="82"/>
-      <c r="D336" s="82"/>
+      <c r="C336" s="76"/>
+      <c r="D336" s="76"/>
       <c r="E336" s="2"/>
-      <c r="F336" s="82"/>
-      <c r="G336" s="82"/>
-      <c r="H336" s="82"/>
+      <c r="F336" s="76"/>
+      <c r="G336" s="76"/>
+      <c r="H336" s="76"/>
       <c r="I336" s="79"/>
       <c r="J336" s="80"/>
       <c r="K336" s="80"/>
@@ -9033,12 +9044,12 @@
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
-      <c r="C337" s="82"/>
-      <c r="D337" s="82"/>
+      <c r="C337" s="76"/>
+      <c r="D337" s="76"/>
       <c r="E337" s="2"/>
-      <c r="F337" s="82"/>
-      <c r="G337" s="82"/>
-      <c r="H337" s="82"/>
+      <c r="F337" s="76"/>
+      <c r="G337" s="76"/>
+      <c r="H337" s="76"/>
       <c r="I337" s="79"/>
       <c r="J337" s="80"/>
       <c r="K337" s="80"/>
@@ -9055,12 +9066,12 @@
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
-      <c r="C338" s="82"/>
-      <c r="D338" s="82"/>
+      <c r="C338" s="76"/>
+      <c r="D338" s="76"/>
       <c r="E338" s="2"/>
-      <c r="F338" s="82"/>
-      <c r="G338" s="82"/>
-      <c r="H338" s="82"/>
+      <c r="F338" s="76"/>
+      <c r="G338" s="76"/>
+      <c r="H338" s="76"/>
       <c r="I338" s="79"/>
       <c r="J338" s="80"/>
       <c r="K338" s="80"/>
@@ -9077,12 +9088,12 @@
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
-      <c r="C339" s="82"/>
-      <c r="D339" s="82"/>
+      <c r="C339" s="76"/>
+      <c r="D339" s="76"/>
       <c r="E339" s="2"/>
-      <c r="F339" s="82"/>
-      <c r="G339" s="82"/>
-      <c r="H339" s="82"/>
+      <c r="F339" s="76"/>
+      <c r="G339" s="76"/>
+      <c r="H339" s="76"/>
       <c r="I339" s="79"/>
       <c r="J339" s="80"/>
       <c r="K339" s="80"/>
@@ -9099,12 +9110,12 @@
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
-      <c r="C340" s="82"/>
-      <c r="D340" s="82"/>
+      <c r="C340" s="76"/>
+      <c r="D340" s="76"/>
       <c r="E340" s="2"/>
-      <c r="F340" s="82"/>
-      <c r="G340" s="82"/>
-      <c r="H340" s="82"/>
+      <c r="F340" s="76"/>
+      <c r="G340" s="76"/>
+      <c r="H340" s="76"/>
       <c r="I340" s="79"/>
       <c r="J340" s="80"/>
       <c r="K340" s="80"/>
@@ -9121,12 +9132,12 @@
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
-      <c r="C341" s="82"/>
-      <c r="D341" s="82"/>
+      <c r="C341" s="76"/>
+      <c r="D341" s="76"/>
       <c r="E341" s="2"/>
-      <c r="F341" s="82"/>
-      <c r="G341" s="82"/>
-      <c r="H341" s="82"/>
+      <c r="F341" s="76"/>
+      <c r="G341" s="76"/>
+      <c r="H341" s="76"/>
       <c r="I341" s="79"/>
       <c r="J341" s="80"/>
       <c r="K341" s="80"/>
@@ -9143,12 +9154,12 @@
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
-      <c r="C342" s="82"/>
-      <c r="D342" s="82"/>
+      <c r="C342" s="76"/>
+      <c r="D342" s="76"/>
       <c r="E342" s="2"/>
-      <c r="F342" s="82"/>
-      <c r="G342" s="82"/>
-      <c r="H342" s="82"/>
+      <c r="F342" s="76"/>
+      <c r="G342" s="76"/>
+      <c r="H342" s="76"/>
       <c r="I342" s="79"/>
       <c r="J342" s="80"/>
       <c r="K342" s="80"/>
@@ -9165,12 +9176,12 @@
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
-      <c r="C343" s="82"/>
-      <c r="D343" s="82"/>
+      <c r="C343" s="76"/>
+      <c r="D343" s="76"/>
       <c r="E343" s="2"/>
-      <c r="F343" s="82"/>
-      <c r="G343" s="82"/>
-      <c r="H343" s="82"/>
+      <c r="F343" s="76"/>
+      <c r="G343" s="76"/>
+      <c r="H343" s="76"/>
       <c r="I343" s="79"/>
       <c r="J343" s="80"/>
       <c r="K343" s="80"/>
@@ -9187,12 +9198,12 @@
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
-      <c r="C344" s="82"/>
-      <c r="D344" s="82"/>
+      <c r="C344" s="76"/>
+      <c r="D344" s="76"/>
       <c r="E344" s="2"/>
-      <c r="F344" s="82"/>
-      <c r="G344" s="82"/>
-      <c r="H344" s="82"/>
+      <c r="F344" s="76"/>
+      <c r="G344" s="76"/>
+      <c r="H344" s="76"/>
       <c r="I344" s="79"/>
       <c r="J344" s="80"/>
       <c r="K344" s="80"/>
@@ -9209,12 +9220,12 @@
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
-      <c r="C345" s="82"/>
-      <c r="D345" s="82"/>
+      <c r="C345" s="76"/>
+      <c r="D345" s="76"/>
       <c r="E345" s="2"/>
-      <c r="F345" s="82"/>
-      <c r="G345" s="82"/>
-      <c r="H345" s="82"/>
+      <c r="F345" s="76"/>
+      <c r="G345" s="76"/>
+      <c r="H345" s="76"/>
       <c r="I345" s="79"/>
       <c r="J345" s="80"/>
       <c r="K345" s="80"/>
@@ -9231,12 +9242,12 @@
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
-      <c r="C346" s="82"/>
-      <c r="D346" s="82"/>
+      <c r="C346" s="76"/>
+      <c r="D346" s="76"/>
       <c r="E346" s="2"/>
-      <c r="F346" s="82"/>
-      <c r="G346" s="82"/>
-      <c r="H346" s="82"/>
+      <c r="F346" s="76"/>
+      <c r="G346" s="76"/>
+      <c r="H346" s="76"/>
       <c r="I346" s="79"/>
       <c r="J346" s="80"/>
       <c r="K346" s="80"/>
@@ -9253,12 +9264,12 @@
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
-      <c r="C347" s="82"/>
-      <c r="D347" s="82"/>
+      <c r="C347" s="76"/>
+      <c r="D347" s="76"/>
       <c r="E347" s="2"/>
-      <c r="F347" s="82"/>
-      <c r="G347" s="82"/>
-      <c r="H347" s="82"/>
+      <c r="F347" s="76"/>
+      <c r="G347" s="76"/>
+      <c r="H347" s="76"/>
       <c r="I347" s="79"/>
       <c r="J347" s="80"/>
       <c r="K347" s="80"/>
@@ -9275,12 +9286,12 @@
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
-      <c r="C348" s="82"/>
-      <c r="D348" s="82"/>
+      <c r="C348" s="76"/>
+      <c r="D348" s="76"/>
       <c r="E348" s="2"/>
-      <c r="F348" s="82"/>
-      <c r="G348" s="82"/>
-      <c r="H348" s="82"/>
+      <c r="F348" s="76"/>
+      <c r="G348" s="76"/>
+      <c r="H348" s="76"/>
       <c r="I348" s="79"/>
       <c r="J348" s="80"/>
       <c r="K348" s="80"/>
@@ -9297,12 +9308,12 @@
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
-      <c r="C349" s="82"/>
-      <c r="D349" s="82"/>
+      <c r="C349" s="76"/>
+      <c r="D349" s="76"/>
       <c r="E349" s="2"/>
-      <c r="F349" s="82"/>
-      <c r="G349" s="82"/>
-      <c r="H349" s="82"/>
+      <c r="F349" s="76"/>
+      <c r="G349" s="76"/>
+      <c r="H349" s="76"/>
       <c r="I349" s="79"/>
       <c r="J349" s="80"/>
       <c r="K349" s="80"/>
@@ -9319,12 +9330,12 @@
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
-      <c r="C350" s="82"/>
-      <c r="D350" s="82"/>
+      <c r="C350" s="76"/>
+      <c r="D350" s="76"/>
       <c r="E350" s="2"/>
-      <c r="F350" s="82"/>
-      <c r="G350" s="82"/>
-      <c r="H350" s="82"/>
+      <c r="F350" s="76"/>
+      <c r="G350" s="76"/>
+      <c r="H350" s="76"/>
       <c r="I350" s="79"/>
       <c r="J350" s="80"/>
       <c r="K350" s="80"/>
@@ -9341,12 +9352,12 @@
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
-      <c r="C351" s="82"/>
-      <c r="D351" s="82"/>
+      <c r="C351" s="76"/>
+      <c r="D351" s="76"/>
       <c r="E351" s="2"/>
-      <c r="F351" s="82"/>
-      <c r="G351" s="82"/>
-      <c r="H351" s="82"/>
+      <c r="F351" s="76"/>
+      <c r="G351" s="76"/>
+      <c r="H351" s="76"/>
       <c r="I351" s="79"/>
       <c r="J351" s="80"/>
       <c r="K351" s="80"/>
@@ -9363,12 +9374,12 @@
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
-      <c r="C352" s="82"/>
-      <c r="D352" s="82"/>
+      <c r="C352" s="76"/>
+      <c r="D352" s="76"/>
       <c r="E352" s="2"/>
-      <c r="F352" s="82"/>
-      <c r="G352" s="82"/>
-      <c r="H352" s="82"/>
+      <c r="F352" s="76"/>
+      <c r="G352" s="76"/>
+      <c r="H352" s="76"/>
       <c r="I352" s="79"/>
       <c r="J352" s="80"/>
       <c r="K352" s="80"/>
@@ -9385,12 +9396,12 @@
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
-      <c r="C353" s="82"/>
-      <c r="D353" s="82"/>
+      <c r="C353" s="76"/>
+      <c r="D353" s="76"/>
       <c r="E353" s="2"/>
-      <c r="F353" s="82"/>
-      <c r="G353" s="82"/>
-      <c r="H353" s="82"/>
+      <c r="F353" s="76"/>
+      <c r="G353" s="76"/>
+      <c r="H353" s="76"/>
       <c r="I353" s="79"/>
       <c r="J353" s="80"/>
       <c r="K353" s="80"/>
@@ -9407,12 +9418,12 @@
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
-      <c r="C354" s="82"/>
-      <c r="D354" s="82"/>
+      <c r="C354" s="76"/>
+      <c r="D354" s="76"/>
       <c r="E354" s="2"/>
-      <c r="F354" s="82"/>
-      <c r="G354" s="82"/>
-      <c r="H354" s="82"/>
+      <c r="F354" s="76"/>
+      <c r="G354" s="76"/>
+      <c r="H354" s="76"/>
       <c r="I354" s="79"/>
       <c r="J354" s="80"/>
       <c r="K354" s="80"/>
@@ -9429,12 +9440,12 @@
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
-      <c r="C355" s="82"/>
-      <c r="D355" s="82"/>
+      <c r="C355" s="76"/>
+      <c r="D355" s="76"/>
       <c r="E355" s="2"/>
-      <c r="F355" s="82"/>
-      <c r="G355" s="82"/>
-      <c r="H355" s="82"/>
+      <c r="F355" s="76"/>
+      <c r="G355" s="76"/>
+      <c r="H355" s="76"/>
       <c r="I355" s="79"/>
       <c r="J355" s="80"/>
       <c r="K355" s="80"/>
@@ -9451,12 +9462,12 @@
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
-      <c r="C356" s="82"/>
-      <c r="D356" s="82"/>
+      <c r="C356" s="76"/>
+      <c r="D356" s="76"/>
       <c r="E356" s="2"/>
-      <c r="F356" s="82"/>
-      <c r="G356" s="82"/>
-      <c r="H356" s="82"/>
+      <c r="F356" s="76"/>
+      <c r="G356" s="76"/>
+      <c r="H356" s="76"/>
       <c r="I356" s="79"/>
       <c r="J356" s="80"/>
       <c r="K356" s="80"/>
@@ -9473,12 +9484,12 @@
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
-      <c r="C357" s="82"/>
-      <c r="D357" s="82"/>
+      <c r="C357" s="76"/>
+      <c r="D357" s="76"/>
       <c r="E357" s="2"/>
-      <c r="F357" s="82"/>
-      <c r="G357" s="82"/>
-      <c r="H357" s="82"/>
+      <c r="F357" s="76"/>
+      <c r="G357" s="76"/>
+      <c r="H357" s="76"/>
       <c r="I357" s="79"/>
       <c r="J357" s="80"/>
       <c r="K357" s="80"/>
@@ -9495,12 +9506,12 @@
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
-      <c r="C358" s="82"/>
-      <c r="D358" s="82"/>
+      <c r="C358" s="76"/>
+      <c r="D358" s="76"/>
       <c r="E358" s="2"/>
-      <c r="F358" s="82"/>
-      <c r="G358" s="82"/>
-      <c r="H358" s="82"/>
+      <c r="F358" s="76"/>
+      <c r="G358" s="76"/>
+      <c r="H358" s="76"/>
       <c r="I358" s="79"/>
       <c r="J358" s="80"/>
       <c r="K358" s="80"/>
@@ -9517,12 +9528,12 @@
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
-      <c r="C359" s="82"/>
-      <c r="D359" s="82"/>
+      <c r="C359" s="76"/>
+      <c r="D359" s="76"/>
       <c r="E359" s="2"/>
-      <c r="F359" s="82"/>
-      <c r="G359" s="82"/>
-      <c r="H359" s="82"/>
+      <c r="F359" s="76"/>
+      <c r="G359" s="76"/>
+      <c r="H359" s="76"/>
       <c r="I359" s="79"/>
       <c r="J359" s="80"/>
       <c r="K359" s="80"/>
@@ -9539,12 +9550,12 @@
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
-      <c r="C360" s="82"/>
-      <c r="D360" s="82"/>
+      <c r="C360" s="76"/>
+      <c r="D360" s="76"/>
       <c r="E360" s="2"/>
-      <c r="F360" s="82"/>
-      <c r="G360" s="82"/>
-      <c r="H360" s="82"/>
+      <c r="F360" s="76"/>
+      <c r="G360" s="76"/>
+      <c r="H360" s="76"/>
       <c r="I360" s="79"/>
       <c r="J360" s="80"/>
       <c r="K360" s="80"/>
@@ -9561,12 +9572,12 @@
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
-      <c r="C361" s="82"/>
-      <c r="D361" s="82"/>
+      <c r="C361" s="76"/>
+      <c r="D361" s="76"/>
       <c r="E361" s="2"/>
-      <c r="F361" s="82"/>
-      <c r="G361" s="82"/>
-      <c r="H361" s="82"/>
+      <c r="F361" s="76"/>
+      <c r="G361" s="76"/>
+      <c r="H361" s="76"/>
       <c r="I361" s="79"/>
       <c r="J361" s="80"/>
       <c r="K361" s="80"/>
@@ -9583,12 +9594,12 @@
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
-      <c r="C362" s="82"/>
-      <c r="D362" s="82"/>
+      <c r="C362" s="76"/>
+      <c r="D362" s="76"/>
       <c r="E362" s="2"/>
-      <c r="F362" s="82"/>
-      <c r="G362" s="82"/>
-      <c r="H362" s="82"/>
+      <c r="F362" s="76"/>
+      <c r="G362" s="76"/>
+      <c r="H362" s="76"/>
       <c r="I362" s="79"/>
       <c r="J362" s="80"/>
       <c r="K362" s="80"/>
@@ -9605,12 +9616,12 @@
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
-      <c r="C363" s="82"/>
-      <c r="D363" s="82"/>
+      <c r="C363" s="76"/>
+      <c r="D363" s="76"/>
       <c r="E363" s="2"/>
-      <c r="F363" s="82"/>
-      <c r="G363" s="82"/>
-      <c r="H363" s="82"/>
+      <c r="F363" s="76"/>
+      <c r="G363" s="76"/>
+      <c r="H363" s="76"/>
       <c r="I363" s="79"/>
       <c r="J363" s="80"/>
       <c r="K363" s="80"/>
@@ -9627,12 +9638,12 @@
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
-      <c r="C364" s="82"/>
-      <c r="D364" s="82"/>
+      <c r="C364" s="76"/>
+      <c r="D364" s="76"/>
       <c r="E364" s="2"/>
-      <c r="F364" s="82"/>
-      <c r="G364" s="82"/>
-      <c r="H364" s="82"/>
+      <c r="F364" s="76"/>
+      <c r="G364" s="76"/>
+      <c r="H364" s="76"/>
       <c r="I364" s="79"/>
       <c r="J364" s="80"/>
       <c r="K364" s="80"/>
@@ -9649,12 +9660,12 @@
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
-      <c r="C365" s="82"/>
-      <c r="D365" s="82"/>
+      <c r="C365" s="76"/>
+      <c r="D365" s="76"/>
       <c r="E365" s="2"/>
-      <c r="F365" s="82"/>
-      <c r="G365" s="82"/>
-      <c r="H365" s="82"/>
+      <c r="F365" s="76"/>
+      <c r="G365" s="76"/>
+      <c r="H365" s="76"/>
       <c r="I365" s="79"/>
       <c r="J365" s="80"/>
       <c r="K365" s="80"/>
@@ -9671,12 +9682,12 @@
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
-      <c r="C366" s="82"/>
-      <c r="D366" s="82"/>
+      <c r="C366" s="76"/>
+      <c r="D366" s="76"/>
       <c r="E366" s="2"/>
-      <c r="F366" s="82"/>
-      <c r="G366" s="82"/>
-      <c r="H366" s="82"/>
+      <c r="F366" s="76"/>
+      <c r="G366" s="76"/>
+      <c r="H366" s="76"/>
       <c r="I366" s="79"/>
       <c r="J366" s="80"/>
       <c r="K366" s="80"/>
@@ -9693,12 +9704,12 @@
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
-      <c r="C367" s="82"/>
-      <c r="D367" s="82"/>
+      <c r="C367" s="76"/>
+      <c r="D367" s="76"/>
       <c r="E367" s="2"/>
-      <c r="F367" s="82"/>
-      <c r="G367" s="82"/>
-      <c r="H367" s="82"/>
+      <c r="F367" s="76"/>
+      <c r="G367" s="76"/>
+      <c r="H367" s="76"/>
       <c r="I367" s="79"/>
       <c r="J367" s="80"/>
       <c r="K367" s="80"/>
@@ -9715,12 +9726,12 @@
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
-      <c r="C368" s="82"/>
-      <c r="D368" s="82"/>
+      <c r="C368" s="76"/>
+      <c r="D368" s="76"/>
       <c r="E368" s="2"/>
-      <c r="F368" s="82"/>
-      <c r="G368" s="82"/>
-      <c r="H368" s="82"/>
+      <c r="F368" s="76"/>
+      <c r="G368" s="76"/>
+      <c r="H368" s="76"/>
       <c r="I368" s="79"/>
       <c r="J368" s="80"/>
       <c r="K368" s="80"/>
@@ -9737,12 +9748,12 @@
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
-      <c r="C369" s="82"/>
-      <c r="D369" s="82"/>
+      <c r="C369" s="76"/>
+      <c r="D369" s="76"/>
       <c r="E369" s="2"/>
-      <c r="F369" s="82"/>
-      <c r="G369" s="82"/>
-      <c r="H369" s="82"/>
+      <c r="F369" s="76"/>
+      <c r="G369" s="76"/>
+      <c r="H369" s="76"/>
       <c r="I369" s="79"/>
       <c r="J369" s="80"/>
       <c r="K369" s="80"/>
@@ -9759,12 +9770,12 @@
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
-      <c r="C370" s="82"/>
-      <c r="D370" s="82"/>
+      <c r="C370" s="76"/>
+      <c r="D370" s="76"/>
       <c r="E370" s="2"/>
-      <c r="F370" s="82"/>
-      <c r="G370" s="82"/>
-      <c r="H370" s="82"/>
+      <c r="F370" s="76"/>
+      <c r="G370" s="76"/>
+      <c r="H370" s="76"/>
       <c r="I370" s="79"/>
       <c r="J370" s="80"/>
       <c r="K370" s="80"/>
@@ -9781,12 +9792,12 @@
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
-      <c r="C371" s="82"/>
-      <c r="D371" s="82"/>
+      <c r="C371" s="76"/>
+      <c r="D371" s="76"/>
       <c r="E371" s="2"/>
-      <c r="F371" s="82"/>
-      <c r="G371" s="82"/>
-      <c r="H371" s="82"/>
+      <c r="F371" s="76"/>
+      <c r="G371" s="76"/>
+      <c r="H371" s="76"/>
       <c r="I371" s="79"/>
       <c r="J371" s="80"/>
       <c r="K371" s="80"/>
@@ -9803,12 +9814,12 @@
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
-      <c r="C372" s="82"/>
-      <c r="D372" s="82"/>
+      <c r="C372" s="76"/>
+      <c r="D372" s="76"/>
       <c r="E372" s="2"/>
-      <c r="F372" s="82"/>
-      <c r="G372" s="82"/>
-      <c r="H372" s="82"/>
+      <c r="F372" s="76"/>
+      <c r="G372" s="76"/>
+      <c r="H372" s="76"/>
       <c r="I372" s="79"/>
       <c r="J372" s="80"/>
       <c r="K372" s="80"/>
@@ -9825,12 +9836,12 @@
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
-      <c r="C373" s="82"/>
-      <c r="D373" s="82"/>
+      <c r="C373" s="76"/>
+      <c r="D373" s="76"/>
       <c r="E373" s="2"/>
-      <c r="F373" s="82"/>
-      <c r="G373" s="82"/>
-      <c r="H373" s="82"/>
+      <c r="F373" s="76"/>
+      <c r="G373" s="76"/>
+      <c r="H373" s="76"/>
       <c r="I373" s="79"/>
       <c r="J373" s="80"/>
       <c r="K373" s="80"/>
@@ -9847,12 +9858,12 @@
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
-      <c r="C374" s="82"/>
-      <c r="D374" s="82"/>
+      <c r="C374" s="76"/>
+      <c r="D374" s="76"/>
       <c r="E374" s="2"/>
-      <c r="F374" s="82"/>
-      <c r="G374" s="82"/>
-      <c r="H374" s="82"/>
+      <c r="F374" s="76"/>
+      <c r="G374" s="76"/>
+      <c r="H374" s="76"/>
       <c r="I374" s="79"/>
       <c r="J374" s="80"/>
       <c r="K374" s="80"/>
@@ -9869,12 +9880,12 @@
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
-      <c r="C375" s="82"/>
-      <c r="D375" s="82"/>
+      <c r="C375" s="76"/>
+      <c r="D375" s="76"/>
       <c r="E375" s="2"/>
-      <c r="F375" s="82"/>
-      <c r="G375" s="82"/>
-      <c r="H375" s="82"/>
+      <c r="F375" s="76"/>
+      <c r="G375" s="76"/>
+      <c r="H375" s="76"/>
       <c r="I375" s="79"/>
       <c r="J375" s="80"/>
       <c r="K375" s="80"/>
@@ -9891,12 +9902,12 @@
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
-      <c r="C376" s="82"/>
-      <c r="D376" s="82"/>
+      <c r="C376" s="76"/>
+      <c r="D376" s="76"/>
       <c r="E376" s="2"/>
-      <c r="F376" s="82"/>
-      <c r="G376" s="82"/>
-      <c r="H376" s="82"/>
+      <c r="F376" s="76"/>
+      <c r="G376" s="76"/>
+      <c r="H376" s="76"/>
       <c r="I376" s="79"/>
       <c r="J376" s="80"/>
       <c r="K376" s="80"/>
@@ -9913,12 +9924,12 @@
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
-      <c r="C377" s="82"/>
-      <c r="D377" s="82"/>
+      <c r="C377" s="76"/>
+      <c r="D377" s="76"/>
       <c r="E377" s="2"/>
-      <c r="F377" s="82"/>
-      <c r="G377" s="82"/>
-      <c r="H377" s="82"/>
+      <c r="F377" s="76"/>
+      <c r="G377" s="76"/>
+      <c r="H377" s="76"/>
       <c r="I377" s="79"/>
       <c r="J377" s="80"/>
       <c r="K377" s="80"/>
@@ -9935,12 +9946,12 @@
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
-      <c r="C378" s="82"/>
-      <c r="D378" s="82"/>
+      <c r="C378" s="76"/>
+      <c r="D378" s="76"/>
       <c r="E378" s="2"/>
-      <c r="F378" s="82"/>
-      <c r="G378" s="82"/>
-      <c r="H378" s="82"/>
+      <c r="F378" s="76"/>
+      <c r="G378" s="76"/>
+      <c r="H378" s="76"/>
       <c r="I378" s="79"/>
       <c r="J378" s="80"/>
       <c r="K378" s="80"/>
@@ -9957,12 +9968,12 @@
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
-      <c r="C379" s="82"/>
-      <c r="D379" s="82"/>
+      <c r="C379" s="76"/>
+      <c r="D379" s="76"/>
       <c r="E379" s="2"/>
-      <c r="F379" s="82"/>
-      <c r="G379" s="82"/>
-      <c r="H379" s="82"/>
+      <c r="F379" s="76"/>
+      <c r="G379" s="76"/>
+      <c r="H379" s="76"/>
       <c r="I379" s="79"/>
       <c r="J379" s="80"/>
       <c r="K379" s="80"/>
@@ -9979,12 +9990,12 @@
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
-      <c r="C380" s="82"/>
-      <c r="D380" s="82"/>
+      <c r="C380" s="76"/>
+      <c r="D380" s="76"/>
       <c r="E380" s="2"/>
-      <c r="F380" s="82"/>
-      <c r="G380" s="82"/>
-      <c r="H380" s="82"/>
+      <c r="F380" s="76"/>
+      <c r="G380" s="76"/>
+      <c r="H380" s="76"/>
       <c r="I380" s="79"/>
       <c r="J380" s="80"/>
       <c r="K380" s="80"/>
@@ -10001,12 +10012,12 @@
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
-      <c r="C381" s="82"/>
-      <c r="D381" s="82"/>
+      <c r="C381" s="76"/>
+      <c r="D381" s="76"/>
       <c r="E381" s="2"/>
-      <c r="F381" s="82"/>
-      <c r="G381" s="82"/>
-      <c r="H381" s="82"/>
+      <c r="F381" s="76"/>
+      <c r="G381" s="76"/>
+      <c r="H381" s="76"/>
       <c r="I381" s="79"/>
       <c r="J381" s="80"/>
       <c r="K381" s="80"/>
@@ -10023,12 +10034,12 @@
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
-      <c r="C382" s="82"/>
-      <c r="D382" s="82"/>
+      <c r="C382" s="76"/>
+      <c r="D382" s="76"/>
       <c r="E382" s="2"/>
-      <c r="F382" s="82"/>
-      <c r="G382" s="82"/>
-      <c r="H382" s="82"/>
+      <c r="F382" s="76"/>
+      <c r="G382" s="76"/>
+      <c r="H382" s="76"/>
       <c r="I382" s="79"/>
       <c r="J382" s="80"/>
       <c r="K382" s="80"/>
@@ -10045,12 +10056,12 @@
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
-      <c r="C383" s="82"/>
-      <c r="D383" s="82"/>
+      <c r="C383" s="76"/>
+      <c r="D383" s="76"/>
       <c r="E383" s="2"/>
-      <c r="F383" s="82"/>
-      <c r="G383" s="82"/>
-      <c r="H383" s="82"/>
+      <c r="F383" s="76"/>
+      <c r="G383" s="76"/>
+      <c r="H383" s="76"/>
       <c r="I383" s="79"/>
       <c r="J383" s="80"/>
       <c r="K383" s="80"/>
@@ -10067,12 +10078,12 @@
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
-      <c r="C384" s="82"/>
-      <c r="D384" s="82"/>
+      <c r="C384" s="76"/>
+      <c r="D384" s="76"/>
       <c r="E384" s="2"/>
-      <c r="F384" s="82"/>
-      <c r="G384" s="82"/>
-      <c r="H384" s="82"/>
+      <c r="F384" s="76"/>
+      <c r="G384" s="76"/>
+      <c r="H384" s="76"/>
       <c r="I384" s="79"/>
       <c r="J384" s="80"/>
       <c r="K384" s="80"/>
@@ -10089,12 +10100,12 @@
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
-      <c r="C385" s="82"/>
-      <c r="D385" s="82"/>
+      <c r="C385" s="76"/>
+      <c r="D385" s="76"/>
       <c r="E385" s="2"/>
-      <c r="F385" s="82"/>
-      <c r="G385" s="82"/>
-      <c r="H385" s="82"/>
+      <c r="F385" s="76"/>
+      <c r="G385" s="76"/>
+      <c r="H385" s="76"/>
       <c r="I385" s="79"/>
       <c r="J385" s="80"/>
       <c r="K385" s="80"/>
@@ -10111,12 +10122,12 @@
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
-      <c r="C386" s="82"/>
-      <c r="D386" s="82"/>
+      <c r="C386" s="76"/>
+      <c r="D386" s="76"/>
       <c r="E386" s="2"/>
-      <c r="F386" s="82"/>
-      <c r="G386" s="82"/>
-      <c r="H386" s="82"/>
+      <c r="F386" s="76"/>
+      <c r="G386" s="76"/>
+      <c r="H386" s="76"/>
       <c r="I386" s="79"/>
       <c r="J386" s="80"/>
       <c r="K386" s="80"/>
@@ -10133,12 +10144,12 @@
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
-      <c r="C387" s="82"/>
-      <c r="D387" s="82"/>
+      <c r="C387" s="76"/>
+      <c r="D387" s="76"/>
       <c r="E387" s="2"/>
-      <c r="F387" s="82"/>
-      <c r="G387" s="82"/>
-      <c r="H387" s="82"/>
+      <c r="F387" s="76"/>
+      <c r="G387" s="76"/>
+      <c r="H387" s="76"/>
       <c r="I387" s="79"/>
       <c r="J387" s="80"/>
       <c r="K387" s="80"/>
@@ -10155,12 +10166,12 @@
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
-      <c r="C388" s="82"/>
-      <c r="D388" s="82"/>
+      <c r="C388" s="76"/>
+      <c r="D388" s="76"/>
       <c r="E388" s="2"/>
-      <c r="F388" s="82"/>
-      <c r="G388" s="82"/>
-      <c r="H388" s="82"/>
+      <c r="F388" s="76"/>
+      <c r="G388" s="76"/>
+      <c r="H388" s="76"/>
       <c r="I388" s="79"/>
       <c r="J388" s="80"/>
       <c r="K388" s="80"/>
@@ -10177,12 +10188,12 @@
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
-      <c r="C389" s="82"/>
-      <c r="D389" s="82"/>
+      <c r="C389" s="76"/>
+      <c r="D389" s="76"/>
       <c r="E389" s="2"/>
-      <c r="F389" s="82"/>
-      <c r="G389" s="82"/>
-      <c r="H389" s="82"/>
+      <c r="F389" s="76"/>
+      <c r="G389" s="76"/>
+      <c r="H389" s="76"/>
       <c r="I389" s="79"/>
       <c r="J389" s="80"/>
       <c r="K389" s="80"/>
@@ -10199,12 +10210,12 @@
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
-      <c r="C390" s="82"/>
-      <c r="D390" s="82"/>
+      <c r="C390" s="76"/>
+      <c r="D390" s="76"/>
       <c r="E390" s="2"/>
-      <c r="F390" s="82"/>
-      <c r="G390" s="82"/>
-      <c r="H390" s="82"/>
+      <c r="F390" s="76"/>
+      <c r="G390" s="76"/>
+      <c r="H390" s="76"/>
       <c r="I390" s="79"/>
       <c r="J390" s="80"/>
       <c r="K390" s="80"/>
@@ -10221,12 +10232,12 @@
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
-      <c r="C391" s="82"/>
-      <c r="D391" s="82"/>
+      <c r="C391" s="76"/>
+      <c r="D391" s="76"/>
       <c r="E391" s="2"/>
-      <c r="F391" s="82"/>
-      <c r="G391" s="82"/>
-      <c r="H391" s="82"/>
+      <c r="F391" s="76"/>
+      <c r="G391" s="76"/>
+      <c r="H391" s="76"/>
       <c r="I391" s="79"/>
       <c r="J391" s="80"/>
       <c r="K391" s="80"/>
@@ -10243,12 +10254,12 @@
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
-      <c r="C392" s="82"/>
-      <c r="D392" s="82"/>
+      <c r="C392" s="76"/>
+      <c r="D392" s="76"/>
       <c r="E392" s="2"/>
-      <c r="F392" s="82"/>
-      <c r="G392" s="82"/>
-      <c r="H392" s="82"/>
+      <c r="F392" s="76"/>
+      <c r="G392" s="76"/>
+      <c r="H392" s="76"/>
       <c r="I392" s="79"/>
       <c r="J392" s="80"/>
       <c r="K392" s="80"/>
@@ -10265,12 +10276,12 @@
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
-      <c r="C393" s="82"/>
-      <c r="D393" s="82"/>
+      <c r="C393" s="76"/>
+      <c r="D393" s="76"/>
       <c r="E393" s="2"/>
-      <c r="F393" s="82"/>
-      <c r="G393" s="82"/>
-      <c r="H393" s="82"/>
+      <c r="F393" s="76"/>
+      <c r="G393" s="76"/>
+      <c r="H393" s="76"/>
       <c r="I393" s="79"/>
       <c r="J393" s="80"/>
       <c r="K393" s="80"/>
@@ -10287,12 +10298,12 @@
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
-      <c r="C394" s="82"/>
-      <c r="D394" s="82"/>
+      <c r="C394" s="76"/>
+      <c r="D394" s="76"/>
       <c r="E394" s="2"/>
-      <c r="F394" s="82"/>
-      <c r="G394" s="82"/>
-      <c r="H394" s="82"/>
+      <c r="F394" s="76"/>
+      <c r="G394" s="76"/>
+      <c r="H394" s="76"/>
       <c r="I394" s="79"/>
       <c r="J394" s="80"/>
       <c r="K394" s="80"/>
@@ -10309,12 +10320,12 @@
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
-      <c r="C395" s="82"/>
-      <c r="D395" s="82"/>
+      <c r="C395" s="76"/>
+      <c r="D395" s="76"/>
       <c r="E395" s="2"/>
-      <c r="F395" s="82"/>
-      <c r="G395" s="82"/>
-      <c r="H395" s="82"/>
+      <c r="F395" s="76"/>
+      <c r="G395" s="76"/>
+      <c r="H395" s="76"/>
       <c r="I395" s="79"/>
       <c r="J395" s="80"/>
       <c r="K395" s="80"/>
@@ -10331,12 +10342,12 @@
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
-      <c r="C396" s="82"/>
-      <c r="D396" s="82"/>
+      <c r="C396" s="76"/>
+      <c r="D396" s="76"/>
       <c r="E396" s="2"/>
-      <c r="F396" s="82"/>
-      <c r="G396" s="82"/>
-      <c r="H396" s="82"/>
+      <c r="F396" s="76"/>
+      <c r="G396" s="76"/>
+      <c r="H396" s="76"/>
       <c r="I396" s="79"/>
       <c r="J396" s="80"/>
       <c r="K396" s="80"/>
@@ -10353,12 +10364,12 @@
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
-      <c r="C397" s="82"/>
-      <c r="D397" s="82"/>
+      <c r="C397" s="76"/>
+      <c r="D397" s="76"/>
       <c r="E397" s="2"/>
-      <c r="F397" s="82"/>
-      <c r="G397" s="82"/>
-      <c r="H397" s="82"/>
+      <c r="F397" s="76"/>
+      <c r="G397" s="76"/>
+      <c r="H397" s="76"/>
       <c r="I397" s="79"/>
       <c r="J397" s="80"/>
       <c r="K397" s="80"/>
@@ -10375,12 +10386,12 @@
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
-      <c r="C398" s="82"/>
-      <c r="D398" s="82"/>
+      <c r="C398" s="76"/>
+      <c r="D398" s="76"/>
       <c r="E398" s="2"/>
-      <c r="F398" s="82"/>
-      <c r="G398" s="82"/>
-      <c r="H398" s="82"/>
+      <c r="F398" s="76"/>
+      <c r="G398" s="76"/>
+      <c r="H398" s="76"/>
       <c r="I398" s="79"/>
       <c r="J398" s="80"/>
       <c r="K398" s="80"/>
@@ -10397,12 +10408,12 @@
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
-      <c r="C399" s="82"/>
-      <c r="D399" s="82"/>
+      <c r="C399" s="76"/>
+      <c r="D399" s="76"/>
       <c r="E399" s="2"/>
-      <c r="F399" s="82"/>
-      <c r="G399" s="82"/>
-      <c r="H399" s="82"/>
+      <c r="F399" s="76"/>
+      <c r="G399" s="76"/>
+      <c r="H399" s="76"/>
       <c r="I399" s="79"/>
       <c r="J399" s="80"/>
       <c r="K399" s="80"/>
@@ -10419,12 +10430,12 @@
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
-      <c r="C400" s="82"/>
-      <c r="D400" s="82"/>
+      <c r="C400" s="76"/>
+      <c r="D400" s="76"/>
       <c r="E400" s="2"/>
-      <c r="F400" s="82"/>
-      <c r="G400" s="82"/>
-      <c r="H400" s="82"/>
+      <c r="F400" s="76"/>
+      <c r="G400" s="76"/>
+      <c r="H400" s="76"/>
       <c r="I400" s="79"/>
       <c r="J400" s="80"/>
       <c r="K400" s="80"/>
@@ -10441,12 +10452,12 @@
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
-      <c r="C401" s="82"/>
-      <c r="D401" s="82"/>
+      <c r="C401" s="76"/>
+      <c r="D401" s="76"/>
       <c r="E401" s="2"/>
-      <c r="F401" s="82"/>
-      <c r="G401" s="82"/>
-      <c r="H401" s="82"/>
+      <c r="F401" s="76"/>
+      <c r="G401" s="76"/>
+      <c r="H401" s="76"/>
       <c r="I401" s="79"/>
       <c r="J401" s="80"/>
       <c r="K401" s="80"/>
@@ -10463,12 +10474,12 @@
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
-      <c r="C402" s="82"/>
-      <c r="D402" s="82"/>
+      <c r="C402" s="76"/>
+      <c r="D402" s="76"/>
       <c r="E402" s="2"/>
-      <c r="F402" s="82"/>
-      <c r="G402" s="82"/>
-      <c r="H402" s="82"/>
+      <c r="F402" s="76"/>
+      <c r="G402" s="76"/>
+      <c r="H402" s="76"/>
       <c r="I402" s="79"/>
       <c r="J402" s="80"/>
       <c r="K402" s="80"/>
@@ -10485,12 +10496,12 @@
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
-      <c r="C403" s="82"/>
-      <c r="D403" s="82"/>
+      <c r="C403" s="76"/>
+      <c r="D403" s="76"/>
       <c r="E403" s="2"/>
-      <c r="F403" s="82"/>
-      <c r="G403" s="82"/>
-      <c r="H403" s="82"/>
+      <c r="F403" s="76"/>
+      <c r="G403" s="76"/>
+      <c r="H403" s="76"/>
       <c r="I403" s="79"/>
       <c r="J403" s="80"/>
       <c r="K403" s="80"/>
@@ -10507,12 +10518,12 @@
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
-      <c r="C404" s="82"/>
-      <c r="D404" s="82"/>
+      <c r="C404" s="76"/>
+      <c r="D404" s="76"/>
       <c r="E404" s="2"/>
-      <c r="F404" s="82"/>
-      <c r="G404" s="82"/>
-      <c r="H404" s="82"/>
+      <c r="F404" s="76"/>
+      <c r="G404" s="76"/>
+      <c r="H404" s="76"/>
       <c r="I404" s="79"/>
       <c r="J404" s="80"/>
       <c r="K404" s="80"/>
@@ -10529,12 +10540,12 @@
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
-      <c r="C405" s="82"/>
-      <c r="D405" s="82"/>
+      <c r="C405" s="76"/>
+      <c r="D405" s="76"/>
       <c r="E405" s="2"/>
-      <c r="F405" s="82"/>
-      <c r="G405" s="82"/>
-      <c r="H405" s="82"/>
+      <c r="F405" s="76"/>
+      <c r="G405" s="76"/>
+      <c r="H405" s="76"/>
       <c r="I405" s="79"/>
       <c r="J405" s="80"/>
       <c r="K405" s="80"/>
@@ -10551,12 +10562,12 @@
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
-      <c r="C406" s="82"/>
-      <c r="D406" s="82"/>
+      <c r="C406" s="76"/>
+      <c r="D406" s="76"/>
       <c r="E406" s="2"/>
-      <c r="F406" s="82"/>
-      <c r="G406" s="82"/>
-      <c r="H406" s="82"/>
+      <c r="F406" s="76"/>
+      <c r="G406" s="76"/>
+      <c r="H406" s="76"/>
       <c r="I406" s="79"/>
       <c r="J406" s="80"/>
       <c r="K406" s="80"/>
@@ -10573,12 +10584,12 @@
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
-      <c r="C407" s="82"/>
-      <c r="D407" s="82"/>
+      <c r="C407" s="76"/>
+      <c r="D407" s="76"/>
       <c r="E407" s="2"/>
-      <c r="F407" s="82"/>
-      <c r="G407" s="82"/>
-      <c r="H407" s="82"/>
+      <c r="F407" s="76"/>
+      <c r="G407" s="76"/>
+      <c r="H407" s="76"/>
       <c r="I407" s="79"/>
       <c r="J407" s="80"/>
       <c r="K407" s="80"/>
@@ -10595,12 +10606,12 @@
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
-      <c r="C408" s="82"/>
-      <c r="D408" s="82"/>
+      <c r="C408" s="76"/>
+      <c r="D408" s="76"/>
       <c r="E408" s="2"/>
-      <c r="F408" s="82"/>
-      <c r="G408" s="82"/>
-      <c r="H408" s="82"/>
+      <c r="F408" s="76"/>
+      <c r="G408" s="76"/>
+      <c r="H408" s="76"/>
       <c r="I408" s="79"/>
       <c r="J408" s="80"/>
       <c r="K408" s="80"/>
@@ -10617,12 +10628,12 @@
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
-      <c r="C409" s="82"/>
-      <c r="D409" s="82"/>
+      <c r="C409" s="76"/>
+      <c r="D409" s="76"/>
       <c r="E409" s="2"/>
-      <c r="F409" s="82"/>
-      <c r="G409" s="82"/>
-      <c r="H409" s="82"/>
+      <c r="F409" s="76"/>
+      <c r="G409" s="76"/>
+      <c r="H409" s="76"/>
       <c r="I409" s="79"/>
       <c r="J409" s="80"/>
       <c r="K409" s="80"/>
@@ -10639,12 +10650,12 @@
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
-      <c r="C410" s="82"/>
-      <c r="D410" s="82"/>
+      <c r="C410" s="76"/>
+      <c r="D410" s="76"/>
       <c r="E410" s="2"/>
-      <c r="F410" s="82"/>
-      <c r="G410" s="82"/>
-      <c r="H410" s="82"/>
+      <c r="F410" s="76"/>
+      <c r="G410" s="76"/>
+      <c r="H410" s="76"/>
       <c r="I410" s="79"/>
       <c r="J410" s="80"/>
       <c r="K410" s="80"/>
@@ -10661,12 +10672,12 @@
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
-      <c r="C411" s="82"/>
-      <c r="D411" s="82"/>
+      <c r="C411" s="76"/>
+      <c r="D411" s="76"/>
       <c r="E411" s="2"/>
-      <c r="F411" s="82"/>
-      <c r="G411" s="82"/>
-      <c r="H411" s="82"/>
+      <c r="F411" s="76"/>
+      <c r="G411" s="76"/>
+      <c r="H411" s="76"/>
       <c r="I411" s="79"/>
       <c r="J411" s="80"/>
       <c r="K411" s="80"/>
@@ -10683,12 +10694,12 @@
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
-      <c r="C412" s="82"/>
-      <c r="D412" s="82"/>
+      <c r="C412" s="76"/>
+      <c r="D412" s="76"/>
       <c r="E412" s="2"/>
-      <c r="F412" s="82"/>
-      <c r="G412" s="82"/>
-      <c r="H412" s="82"/>
+      <c r="F412" s="76"/>
+      <c r="G412" s="76"/>
+      <c r="H412" s="76"/>
       <c r="I412" s="79"/>
       <c r="J412" s="80"/>
       <c r="K412" s="80"/>
@@ -10705,12 +10716,12 @@
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
-      <c r="C413" s="82"/>
-      <c r="D413" s="82"/>
+      <c r="C413" s="76"/>
+      <c r="D413" s="76"/>
       <c r="E413" s="2"/>
-      <c r="F413" s="82"/>
-      <c r="G413" s="82"/>
-      <c r="H413" s="82"/>
+      <c r="F413" s="76"/>
+      <c r="G413" s="76"/>
+      <c r="H413" s="76"/>
       <c r="I413" s="79"/>
       <c r="J413" s="80"/>
       <c r="K413" s="80"/>
@@ -10727,12 +10738,12 @@
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
-      <c r="C414" s="82"/>
-      <c r="D414" s="82"/>
+      <c r="C414" s="76"/>
+      <c r="D414" s="76"/>
       <c r="E414" s="2"/>
-      <c r="F414" s="82"/>
-      <c r="G414" s="82"/>
-      <c r="H414" s="82"/>
+      <c r="F414" s="76"/>
+      <c r="G414" s="76"/>
+      <c r="H414" s="76"/>
       <c r="I414" s="79"/>
       <c r="J414" s="80"/>
       <c r="K414" s="80"/>
@@ -10749,12 +10760,12 @@
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
-      <c r="C415" s="82"/>
-      <c r="D415" s="82"/>
+      <c r="C415" s="76"/>
+      <c r="D415" s="76"/>
       <c r="E415" s="2"/>
-      <c r="F415" s="82"/>
-      <c r="G415" s="82"/>
-      <c r="H415" s="82"/>
+      <c r="F415" s="76"/>
+      <c r="G415" s="76"/>
+      <c r="H415" s="76"/>
       <c r="I415" s="79"/>
       <c r="J415" s="80"/>
       <c r="K415" s="80"/>
@@ -10771,12 +10782,12 @@
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
-      <c r="C416" s="82"/>
-      <c r="D416" s="82"/>
+      <c r="C416" s="76"/>
+      <c r="D416" s="76"/>
       <c r="E416" s="2"/>
-      <c r="F416" s="82"/>
-      <c r="G416" s="82"/>
-      <c r="H416" s="82"/>
+      <c r="F416" s="76"/>
+      <c r="G416" s="76"/>
+      <c r="H416" s="76"/>
       <c r="I416" s="79"/>
       <c r="J416" s="80"/>
       <c r="K416" s="80"/>
@@ -10793,12 +10804,12 @@
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
-      <c r="C417" s="82"/>
-      <c r="D417" s="82"/>
+      <c r="C417" s="76"/>
+      <c r="D417" s="76"/>
       <c r="E417" s="2"/>
-      <c r="F417" s="82"/>
-      <c r="G417" s="82"/>
-      <c r="H417" s="82"/>
+      <c r="F417" s="76"/>
+      <c r="G417" s="76"/>
+      <c r="H417" s="76"/>
       <c r="I417" s="79"/>
       <c r="J417" s="80"/>
       <c r="K417" s="80"/>
@@ -10815,12 +10826,12 @@
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
-      <c r="C418" s="82"/>
-      <c r="D418" s="82"/>
+      <c r="C418" s="76"/>
+      <c r="D418" s="76"/>
       <c r="E418" s="2"/>
-      <c r="F418" s="82"/>
-      <c r="G418" s="82"/>
-      <c r="H418" s="82"/>
+      <c r="F418" s="76"/>
+      <c r="G418" s="76"/>
+      <c r="H418" s="76"/>
       <c r="I418" s="79"/>
       <c r="J418" s="80"/>
       <c r="K418" s="80"/>
@@ -10837,12 +10848,12 @@
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
-      <c r="C419" s="82"/>
-      <c r="D419" s="82"/>
+      <c r="C419" s="76"/>
+      <c r="D419" s="76"/>
       <c r="E419" s="2"/>
-      <c r="F419" s="82"/>
-      <c r="G419" s="82"/>
-      <c r="H419" s="82"/>
+      <c r="F419" s="76"/>
+      <c r="G419" s="76"/>
+      <c r="H419" s="76"/>
       <c r="I419" s="79"/>
       <c r="J419" s="80"/>
       <c r="K419" s="80"/>
@@ -10859,12 +10870,12 @@
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
-      <c r="C420" s="82"/>
-      <c r="D420" s="82"/>
+      <c r="C420" s="76"/>
+      <c r="D420" s="76"/>
       <c r="E420" s="2"/>
-      <c r="F420" s="82"/>
-      <c r="G420" s="82"/>
-      <c r="H420" s="82"/>
+      <c r="F420" s="76"/>
+      <c r="G420" s="76"/>
+      <c r="H420" s="76"/>
       <c r="I420" s="79"/>
       <c r="J420" s="80"/>
       <c r="K420" s="80"/>
@@ -10881,12 +10892,12 @@
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
-      <c r="C421" s="82"/>
-      <c r="D421" s="82"/>
+      <c r="C421" s="76"/>
+      <c r="D421" s="76"/>
       <c r="E421" s="2"/>
-      <c r="F421" s="82"/>
-      <c r="G421" s="82"/>
-      <c r="H421" s="82"/>
+      <c r="F421" s="76"/>
+      <c r="G421" s="76"/>
+      <c r="H421" s="76"/>
       <c r="I421" s="79"/>
       <c r="J421" s="80"/>
       <c r="K421" s="80"/>
@@ -10903,12 +10914,12 @@
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
-      <c r="C422" s="82"/>
-      <c r="D422" s="82"/>
+      <c r="C422" s="76"/>
+      <c r="D422" s="76"/>
       <c r="E422" s="2"/>
-      <c r="F422" s="82"/>
-      <c r="G422" s="82"/>
-      <c r="H422" s="82"/>
+      <c r="F422" s="76"/>
+      <c r="G422" s="76"/>
+      <c r="H422" s="76"/>
       <c r="I422" s="79"/>
       <c r="J422" s="80"/>
       <c r="K422" s="80"/>
@@ -10925,12 +10936,12 @@
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
-      <c r="C423" s="82"/>
-      <c r="D423" s="82"/>
+      <c r="C423" s="76"/>
+      <c r="D423" s="76"/>
       <c r="E423" s="2"/>
-      <c r="F423" s="82"/>
-      <c r="G423" s="82"/>
-      <c r="H423" s="82"/>
+      <c r="F423" s="76"/>
+      <c r="G423" s="76"/>
+      <c r="H423" s="76"/>
       <c r="I423" s="79"/>
       <c r="J423" s="80"/>
       <c r="K423" s="80"/>
@@ -10947,12 +10958,12 @@
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
-      <c r="C424" s="82"/>
-      <c r="D424" s="82"/>
+      <c r="C424" s="76"/>
+      <c r="D424" s="76"/>
       <c r="E424" s="2"/>
-      <c r="F424" s="82"/>
-      <c r="G424" s="82"/>
-      <c r="H424" s="82"/>
+      <c r="F424" s="76"/>
+      <c r="G424" s="76"/>
+      <c r="H424" s="76"/>
       <c r="I424" s="79"/>
       <c r="J424" s="80"/>
       <c r="K424" s="80"/>
@@ -10969,12 +10980,12 @@
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
-      <c r="C425" s="82"/>
-      <c r="D425" s="82"/>
+      <c r="C425" s="76"/>
+      <c r="D425" s="76"/>
       <c r="E425" s="2"/>
-      <c r="F425" s="82"/>
-      <c r="G425" s="82"/>
-      <c r="H425" s="82"/>
+      <c r="F425" s="76"/>
+      <c r="G425" s="76"/>
+      <c r="H425" s="76"/>
       <c r="I425" s="79"/>
       <c r="J425" s="80"/>
       <c r="K425" s="80"/>
@@ -10991,12 +11002,12 @@
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
-      <c r="C426" s="82"/>
-      <c r="D426" s="82"/>
+      <c r="C426" s="76"/>
+      <c r="D426" s="76"/>
       <c r="E426" s="2"/>
-      <c r="F426" s="82"/>
-      <c r="G426" s="82"/>
-      <c r="H426" s="82"/>
+      <c r="F426" s="76"/>
+      <c r="G426" s="76"/>
+      <c r="H426" s="76"/>
       <c r="I426" s="79"/>
       <c r="J426" s="80"/>
       <c r="K426" s="80"/>
@@ -11013,12 +11024,12 @@
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
-      <c r="C427" s="82"/>
-      <c r="D427" s="82"/>
+      <c r="C427" s="76"/>
+      <c r="D427" s="76"/>
       <c r="E427" s="2"/>
-      <c r="F427" s="82"/>
-      <c r="G427" s="82"/>
-      <c r="H427" s="82"/>
+      <c r="F427" s="76"/>
+      <c r="G427" s="76"/>
+      <c r="H427" s="76"/>
       <c r="I427" s="79"/>
       <c r="J427" s="80"/>
       <c r="K427" s="80"/>
@@ -11035,12 +11046,12 @@
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
-      <c r="C428" s="82"/>
-      <c r="D428" s="82"/>
+      <c r="C428" s="76"/>
+      <c r="D428" s="76"/>
       <c r="E428" s="2"/>
-      <c r="F428" s="82"/>
-      <c r="G428" s="82"/>
-      <c r="H428" s="82"/>
+      <c r="F428" s="76"/>
+      <c r="G428" s="76"/>
+      <c r="H428" s="76"/>
       <c r="I428" s="79"/>
       <c r="J428" s="80"/>
       <c r="K428" s="80"/>
@@ -11057,12 +11068,12 @@
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
-      <c r="C429" s="82"/>
-      <c r="D429" s="82"/>
+      <c r="C429" s="76"/>
+      <c r="D429" s="76"/>
       <c r="E429" s="2"/>
-      <c r="F429" s="82"/>
-      <c r="G429" s="82"/>
-      <c r="H429" s="82"/>
+      <c r="F429" s="76"/>
+      <c r="G429" s="76"/>
+      <c r="H429" s="76"/>
       <c r="I429" s="79"/>
       <c r="J429" s="80"/>
       <c r="K429" s="80"/>
@@ -11079,12 +11090,12 @@
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
-      <c r="C430" s="82"/>
-      <c r="D430" s="82"/>
+      <c r="C430" s="76"/>
+      <c r="D430" s="76"/>
       <c r="E430" s="2"/>
-      <c r="F430" s="82"/>
-      <c r="G430" s="82"/>
-      <c r="H430" s="82"/>
+      <c r="F430" s="76"/>
+      <c r="G430" s="76"/>
+      <c r="H430" s="76"/>
       <c r="I430" s="79"/>
       <c r="J430" s="80"/>
       <c r="K430" s="80"/>

--- a/template_v4_test.xlsx
+++ b/template_v4_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>Metadata</t>
   </si>
@@ -294,24 +294,6 @@
   </si>
   <si>
     <t>Col5</t>
-  </si>
-  <si>
-    <t>FeAlNi</t>
-  </si>
-  <si>
-    <t>BCC</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>not parsed :)</t>
   </si>
   <si>
     <t>NiAlFe</t>
@@ -1464,7 +1446,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T430"/>
+  <dimension ref="A1:T429"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1830,12 +1812,8 @@
       <c r="C10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="75" t="s">
-        <v>66</v>
-      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1844,7 +1822,7 @@
       <c r="K10" s="77"/>
       <c r="L10" s="5"/>
       <c r="M10" s="75" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N10" s="39" t="s">
         <v>35</v>
@@ -1852,20 +1830,16 @@
       <c r="O10" s="5"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="74"/>
-      <c r="B11" s="75" t="s">
-        <v>69</v>
+      <c r="B11" s="5" t="s">
+        <v>66</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
@@ -1875,13 +1849,11 @@
       <c r="J11" s="77"/>
       <c r="K11" s="77"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="75" t="s">
-        <v>71</v>
+      <c r="M11" s="5"/>
+      <c r="N11" s="78" t="s">
+        <v>67</v>
       </c>
-      <c r="N11" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11" s="5"/>
+      <c r="O11" s="78"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -1890,9 +1862,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="74"/>
-      <c r="B12" s="5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
@@ -1904,10 +1874,8 @@
       <c r="K12" s="77"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="O12" s="78"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -1995,7 +1963,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -2288,7 +2256,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
       <c r="A30" s="74"/>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
@@ -7305,14 +7273,14 @@
       <c r="T257" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18">
-      <c r="A258" s="74"/>
-      <c r="B258" s="5"/>
-      <c r="C258" s="4"/>
-      <c r="D258" s="4"/>
-      <c r="E258" s="5"/>
-      <c r="F258" s="4"/>
-      <c r="G258" s="4"/>
-      <c r="H258" s="4"/>
+      <c r="A258" s="15"/>
+      <c r="B258" s="2"/>
+      <c r="C258" s="3"/>
+      <c r="D258" s="3"/>
+      <c r="E258" s="2"/>
+      <c r="F258" s="3"/>
+      <c r="G258" s="3"/>
+      <c r="H258" s="3"/>
       <c r="I258" s="76"/>
       <c r="J258" s="77"/>
       <c r="K258" s="77"/>
@@ -8339,7 +8307,7 @@
       <c r="T304" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18">
-      <c r="A305" s="15"/>
+      <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -11087,28 +11055,6 @@
       <c r="R429" s="2"/>
       <c r="S429" s="2"/>
       <c r="T429" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18">
-      <c r="A430" s="2"/>
-      <c r="B430" s="2"/>
-      <c r="C430" s="3"/>
-      <c r="D430" s="3"/>
-      <c r="E430" s="2"/>
-      <c r="F430" s="3"/>
-      <c r="G430" s="3"/>
-      <c r="H430" s="3"/>
-      <c r="I430" s="76"/>
-      <c r="J430" s="77"/>
-      <c r="K430" s="77"/>
-      <c r="L430" s="5"/>
-      <c r="M430" s="5"/>
-      <c r="N430" s="5"/>
-      <c r="O430" s="2"/>
-      <c r="P430" s="2"/>
-      <c r="Q430" s="2"/>
-      <c r="R430" s="2"/>
-      <c r="S430" s="2"/>
-      <c r="T430" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/template_v4_test.xlsx
+++ b/template_v4_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>Metadata</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Name:</t>
   </si>
   <si>
-    <t>Happy Researcher</t>
+    <t>Some Researcher</t>
   </si>
   <si>
     <t>Optional Upload Comments:</t>
@@ -31,7 +31,7 @@
     <t>Email:</t>
   </si>
   <si>
-    <t>happy@psu.edu</t>
+    <t>kwenvcj@gmail.com</t>
   </si>
   <si>
     <t>Direct:</t>
@@ -304,12 +304,6 @@
   <si>
     <t>P4</t>
   </si>
-  <si>
-    <t>BNiCZr</t>
-  </si>
-  <si>
-    <t>11.212/acta.mat.2023.2141234</t>
-  </si>
 </sst>
 </file>
 
@@ -318,7 +312,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,13 +367,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -893,7 +880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1124,9 +1111,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1446,32 +1430,32 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T429"/>
+  <dimension ref="A1:T428"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="79" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="79" width="31.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="80" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="80" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="79" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="80" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="80" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="80" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="81" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="82" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="82" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="83" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="83" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="83" width="37.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="79" width="39.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="79" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="79" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="79" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="79" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="79" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="78" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="78" width="31.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="79" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="79" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="78" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="79" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="79" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="79" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="80" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="81" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="81" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="82" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="82" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="82" width="37.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="78" width="39.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="78" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="78" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="78" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="78" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="78" width="17.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
@@ -1656,7 +1640,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="23.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="23.25">
       <c r="A7" s="38" t="s">
         <v>23</v>
       </c>
@@ -1836,9 +1820,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="74"/>
-      <c r="B11" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -1850,10 +1832,8 @@
       <c r="K11" s="77"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="O11" s="78"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -1941,7 +1921,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -2234,7 +2214,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
       <c r="A29" s="74"/>
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
@@ -7251,14 +7231,14 @@
       <c r="T256" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18">
-      <c r="A257" s="74"/>
-      <c r="B257" s="5"/>
-      <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
-      <c r="E257" s="5"/>
-      <c r="F257" s="4"/>
-      <c r="G257" s="4"/>
-      <c r="H257" s="4"/>
+      <c r="A257" s="15"/>
+      <c r="B257" s="2"/>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3"/>
+      <c r="E257" s="2"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="3"/>
+      <c r="H257" s="3"/>
       <c r="I257" s="76"/>
       <c r="J257" s="77"/>
       <c r="K257" s="77"/>
@@ -8285,7 +8265,7 @@
       <c r="T303" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18">
-      <c r="A304" s="15"/>
+      <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -11033,28 +11013,6 @@
       <c r="R428" s="2"/>
       <c r="S428" s="2"/>
       <c r="T428" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18">
-      <c r="A429" s="2"/>
-      <c r="B429" s="2"/>
-      <c r="C429" s="3"/>
-      <c r="D429" s="3"/>
-      <c r="E429" s="2"/>
-      <c r="F429" s="3"/>
-      <c r="G429" s="3"/>
-      <c r="H429" s="3"/>
-      <c r="I429" s="76"/>
-      <c r="J429" s="77"/>
-      <c r="K429" s="77"/>
-      <c r="L429" s="5"/>
-      <c r="M429" s="5"/>
-      <c r="N429" s="5"/>
-      <c r="O429" s="2"/>
-      <c r="P429" s="2"/>
-      <c r="Q429" s="2"/>
-      <c r="R429" s="2"/>
-      <c r="S429" s="2"/>
-      <c r="T429" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/template_v4_test.xlsx
+++ b/template_v4_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>Metadata</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Name:</t>
   </si>
   <si>
-    <t>Some Researcher</t>
+    <t>Some Optimistic Researcher</t>
   </si>
   <si>
     <t>Optional Upload Comments:</t>
@@ -303,6 +303,15 @@
   </si>
   <si>
     <t>P4</t>
+  </si>
+  <si>
+    <t>BNAl</t>
+  </si>
+  <si>
+    <t>HCP</t>
+  </si>
+  <si>
+    <t>Researcher_2024_SomeNicePaper</t>
   </si>
 </sst>
 </file>
@@ -1820,8 +1829,12 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="74"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
@@ -1832,7 +1845,9 @@
       <c r="K11" s="77"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="N11" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="O11" s="5"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
